--- a/BackTest/2020-01-15 BackTest INS.xlsx
+++ b/BackTest/2020-01-15 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M275"/>
+  <dimension ref="A1:M276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>280.9</v>
+        <v>282.2</v>
       </c>
       <c r="C2" t="n">
-        <v>280.9</v>
+        <v>279.9</v>
       </c>
       <c r="D2" t="n">
-        <v>280.9</v>
+        <v>282.2</v>
       </c>
       <c r="E2" t="n">
-        <v>280.9</v>
+        <v>279.9</v>
       </c>
       <c r="F2" t="n">
-        <v>542.1626</v>
+        <v>1555.6905</v>
       </c>
       <c r="G2" t="n">
-        <v>286.1283333333331</v>
+        <v>286.1716666666664</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>281</v>
+        <v>280.9</v>
       </c>
       <c r="C3" t="n">
-        <v>281</v>
+        <v>280.9</v>
       </c>
       <c r="D3" t="n">
-        <v>281</v>
+        <v>280.9</v>
       </c>
       <c r="E3" t="n">
-        <v>281</v>
+        <v>280.9</v>
       </c>
       <c r="F3" t="n">
-        <v>819.6244</v>
+        <v>542.1626</v>
       </c>
       <c r="G3" t="n">
-        <v>286.0866666666664</v>
+        <v>286.1283333333331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>279.9</v>
+        <v>281</v>
       </c>
       <c r="C4" t="n">
-        <v>279.8</v>
+        <v>281</v>
       </c>
       <c r="D4" t="n">
-        <v>279.9</v>
+        <v>281</v>
       </c>
       <c r="E4" t="n">
-        <v>279.8</v>
+        <v>281</v>
       </c>
       <c r="F4" t="n">
-        <v>740.8920000000001</v>
+        <v>819.6244</v>
       </c>
       <c r="G4" t="n">
-        <v>286.068333333333</v>
+        <v>286.0866666666664</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>279.8</v>
+        <v>279.9</v>
       </c>
       <c r="C5" t="n">
         <v>279.8</v>
@@ -550,10 +550,10 @@
         <v>279.8</v>
       </c>
       <c r="F5" t="n">
-        <v>1020.3534</v>
+        <v>740.8920000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>285.9999999999997</v>
+        <v>286.068333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>279.7</v>
+        <v>279.8</v>
       </c>
       <c r="C6" t="n">
         <v>279.8</v>
       </c>
       <c r="D6" t="n">
+        <v>279.9</v>
+      </c>
+      <c r="E6" t="n">
         <v>279.8</v>
       </c>
-      <c r="E6" t="n">
-        <v>279.6</v>
-      </c>
       <c r="F6" t="n">
-        <v>3047.3392</v>
+        <v>1020.3534</v>
       </c>
       <c r="G6" t="n">
-        <v>285.9166666666663</v>
+        <v>285.9999999999997</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,32 +611,28 @@
         <v>279.7</v>
       </c>
       <c r="C7" t="n">
-        <v>279.7</v>
+        <v>279.8</v>
       </c>
       <c r="D7" t="n">
-        <v>279.7</v>
+        <v>279.8</v>
       </c>
       <c r="E7" t="n">
-        <v>279.7</v>
+        <v>279.6</v>
       </c>
       <c r="F7" t="n">
-        <v>197.0591</v>
+        <v>3047.3392</v>
       </c>
       <c r="G7" t="n">
-        <v>285.878333333333</v>
+        <v>285.9166666666663</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>279.8</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -647,292 +643,268 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>279.7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>279.7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>279.7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>279.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>197.0591</v>
+      </c>
+      <c r="G8" t="n">
+        <v>285.878333333333</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>279.8</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>279.9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>279.9</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>279.8</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>1935.6888</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>285.7933333333331</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>279.7</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>279.8</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="C10" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>172.0516</v>
+      </c>
+      <c r="G10" t="n">
+        <v>285.7233333333331</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>173.0519</v>
+      </c>
+      <c r="G11" t="n">
+        <v>285.6366666666664</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>279.9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>279.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>279.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>279.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1662.192</v>
+      </c>
+      <c r="G12" t="n">
+        <v>285.5183333333331</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>282.3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>282.3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>282.3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>282.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>649.1947</v>
+      </c>
+      <c r="G13" t="n">
+        <v>285.4416666666664</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>279.9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>280</v>
+      </c>
+      <c r="C14" t="n">
+        <v>279.2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>280</v>
+      </c>
+      <c r="E14" t="n">
+        <v>279.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>84.19970000000001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>285.2683333333331</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>282.3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="E9" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>172.0516</v>
-      </c>
-      <c r="G9" t="n">
-        <v>285.7233333333331</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>279.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>173.0519</v>
-      </c>
-      <c r="G10" t="n">
-        <v>285.6366666666664</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>279.9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>279.9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>279.9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>279.9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1662.192</v>
-      </c>
-      <c r="G11" t="n">
-        <v>285.5183333333331</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>282.3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>282.3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>282.3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>282.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>649.1947</v>
-      </c>
-      <c r="G12" t="n">
-        <v>285.4416666666664</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>280</v>
-      </c>
-      <c r="C13" t="n">
-        <v>279.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>280</v>
-      </c>
-      <c r="E13" t="n">
-        <v>279.2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>84.19970000000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>285.2683333333331</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>281.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>281.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>281.9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>281.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>766.181</v>
-      </c>
-      <c r="G14" t="n">
-        <v>285.1333333333331</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -942,30 +914,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>282</v>
+        <v>281.8</v>
       </c>
       <c r="C15" t="n">
-        <v>284.5</v>
+        <v>281.9</v>
       </c>
       <c r="D15" t="n">
-        <v>284.5</v>
+        <v>281.9</v>
       </c>
       <c r="E15" t="n">
-        <v>282</v>
+        <v>281.8</v>
       </c>
       <c r="F15" t="n">
-        <v>17975.8316</v>
+        <v>766.181</v>
       </c>
       <c r="G15" t="n">
-        <v>284.9916666666664</v>
+        <v>285.1333333333331</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>279.2</v>
+      </c>
       <c r="K15" t="n">
         <v>279.8</v>
       </c>
@@ -983,22 +957,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>282.6</v>
+        <v>282</v>
       </c>
       <c r="C16" t="n">
-        <v>282.6</v>
+        <v>284.5</v>
       </c>
       <c r="D16" t="n">
-        <v>282.6</v>
+        <v>284.5</v>
       </c>
       <c r="E16" t="n">
-        <v>282.6</v>
+        <v>282</v>
       </c>
       <c r="F16" t="n">
-        <v>115.0225</v>
+        <v>17975.8316</v>
       </c>
       <c r="G16" t="n">
-        <v>284.8133333333331</v>
+        <v>284.9916666666664</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1024,22 +998,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>284.4</v>
+        <v>282.6</v>
       </c>
       <c r="C17" t="n">
-        <v>285.4</v>
+        <v>282.6</v>
       </c>
       <c r="D17" t="n">
-        <v>288.3</v>
+        <v>282.6</v>
       </c>
       <c r="E17" t="n">
-        <v>284.4</v>
+        <v>282.6</v>
       </c>
       <c r="F17" t="n">
-        <v>12102.9473</v>
+        <v>115.0225</v>
       </c>
       <c r="G17" t="n">
-        <v>284.6566666666665</v>
+        <v>284.8133333333331</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1065,22 +1039,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>290.8</v>
+        <v>284.4</v>
       </c>
       <c r="C18" t="n">
-        <v>286</v>
+        <v>285.4</v>
       </c>
       <c r="D18" t="n">
-        <v>291.7</v>
+        <v>288.3</v>
       </c>
       <c r="E18" t="n">
-        <v>286</v>
+        <v>284.4</v>
       </c>
       <c r="F18" t="n">
-        <v>659.2188</v>
+        <v>12102.9473</v>
       </c>
       <c r="G18" t="n">
-        <v>284.5083333333331</v>
+        <v>284.6566666666665</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1106,22 +1080,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>287.1</v>
+        <v>290.8</v>
       </c>
       <c r="C19" t="n">
-        <v>287.1</v>
+        <v>286</v>
       </c>
       <c r="D19" t="n">
-        <v>287.1</v>
+        <v>291.7</v>
       </c>
       <c r="E19" t="n">
-        <v>287.1</v>
+        <v>286</v>
       </c>
       <c r="F19" t="n">
-        <v>481</v>
+        <v>659.2188</v>
       </c>
       <c r="G19" t="n">
-        <v>284.3766666666664</v>
+        <v>284.5083333333331</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1147,22 +1121,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>292.1</v>
+        <v>287.1</v>
       </c>
       <c r="C20" t="n">
-        <v>287</v>
+        <v>287.1</v>
       </c>
       <c r="D20" t="n">
-        <v>292.1</v>
+        <v>287.1</v>
       </c>
       <c r="E20" t="n">
-        <v>287</v>
+        <v>287.1</v>
       </c>
       <c r="F20" t="n">
-        <v>361</v>
+        <v>481</v>
       </c>
       <c r="G20" t="n">
-        <v>284.2449999999997</v>
+        <v>284.3766666666664</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1188,22 +1162,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>290.5</v>
+        <v>292.1</v>
       </c>
       <c r="C21" t="n">
-        <v>288.5</v>
+        <v>287</v>
       </c>
       <c r="D21" t="n">
-        <v>290.5</v>
+        <v>292.1</v>
       </c>
       <c r="E21" t="n">
-        <v>284.4</v>
+        <v>287</v>
       </c>
       <c r="F21" t="n">
-        <v>3521.5264</v>
+        <v>361</v>
       </c>
       <c r="G21" t="n">
-        <v>284.2199999999997</v>
+        <v>284.2449999999997</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1229,22 +1203,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>286</v>
+        <v>290.5</v>
       </c>
       <c r="C22" t="n">
-        <v>290.9</v>
+        <v>288.5</v>
       </c>
       <c r="D22" t="n">
-        <v>290.9</v>
+        <v>290.5</v>
       </c>
       <c r="E22" t="n">
-        <v>284.6</v>
+        <v>284.4</v>
       </c>
       <c r="F22" t="n">
-        <v>2888.5362</v>
+        <v>3521.5264</v>
       </c>
       <c r="G22" t="n">
-        <v>284.1699999999997</v>
+        <v>284.2199999999997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1273,19 +1247,19 @@
         <v>286</v>
       </c>
       <c r="C23" t="n">
-        <v>284.6</v>
+        <v>290.9</v>
       </c>
       <c r="D23" t="n">
-        <v>286</v>
+        <v>290.9</v>
       </c>
       <c r="E23" t="n">
         <v>284.6</v>
       </c>
       <c r="F23" t="n">
-        <v>18433.4275</v>
+        <v>2888.5362</v>
       </c>
       <c r="G23" t="n">
-        <v>284.1599999999997</v>
+        <v>284.1699999999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1311,22 +1285,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C24" t="n">
-        <v>285</v>
+        <v>284.6</v>
       </c>
       <c r="D24" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E24" t="n">
-        <v>285</v>
+        <v>284.6</v>
       </c>
       <c r="F24" t="n">
-        <v>5530.0282</v>
+        <v>18433.4275</v>
       </c>
       <c r="G24" t="n">
-        <v>284.158333333333</v>
+        <v>284.1599999999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1352,22 +1326,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>285.1</v>
+        <v>285</v>
       </c>
       <c r="C25" t="n">
-        <v>284.6</v>
+        <v>285</v>
       </c>
       <c r="D25" t="n">
-        <v>285.1</v>
+        <v>285</v>
       </c>
       <c r="E25" t="n">
-        <v>284.6</v>
+        <v>285</v>
       </c>
       <c r="F25" t="n">
-        <v>12442.5636</v>
+        <v>5530.0282</v>
       </c>
       <c r="G25" t="n">
-        <v>284.0699999999997</v>
+        <v>284.158333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1393,22 +1367,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>284.7</v>
+        <v>285.1</v>
       </c>
       <c r="C26" t="n">
-        <v>284.3</v>
+        <v>284.6</v>
       </c>
       <c r="D26" t="n">
-        <v>284.7</v>
+        <v>285.1</v>
       </c>
       <c r="E26" t="n">
-        <v>284.3</v>
+        <v>284.6</v>
       </c>
       <c r="F26" t="n">
-        <v>14620.7342</v>
+        <v>12442.5636</v>
       </c>
       <c r="G26" t="n">
-        <v>283.9933333333329</v>
+        <v>284.0699999999997</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1434,22 +1408,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>282.7</v>
+        <v>284.7</v>
       </c>
       <c r="C27" t="n">
-        <v>283.2</v>
+        <v>284.3</v>
       </c>
       <c r="D27" t="n">
-        <v>283.2</v>
+        <v>284.7</v>
       </c>
       <c r="E27" t="n">
-        <v>279.9</v>
+        <v>284.3</v>
       </c>
       <c r="F27" t="n">
-        <v>6491.8202</v>
+        <v>14620.7342</v>
       </c>
       <c r="G27" t="n">
-        <v>283.978333333333</v>
+        <v>283.9933333333329</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1475,7 +1449,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>283.2</v>
+        <v>282.7</v>
       </c>
       <c r="C28" t="n">
         <v>283.2</v>
@@ -1484,13 +1458,13 @@
         <v>283.2</v>
       </c>
       <c r="E28" t="n">
-        <v>283.2</v>
+        <v>279.9</v>
       </c>
       <c r="F28" t="n">
-        <v>78</v>
+        <v>6491.8202</v>
       </c>
       <c r="G28" t="n">
-        <v>283.9649999999996</v>
+        <v>283.978333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1528,10 +1502,10 @@
         <v>283.2</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="G29" t="n">
-        <v>283.9499999999997</v>
+        <v>283.9649999999996</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1557,22 +1531,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>284.4</v>
+        <v>283.2</v>
       </c>
       <c r="C30" t="n">
-        <v>285.8</v>
+        <v>283.2</v>
       </c>
       <c r="D30" t="n">
-        <v>285.8</v>
+        <v>283.2</v>
       </c>
       <c r="E30" t="n">
-        <v>284.4</v>
+        <v>283.2</v>
       </c>
       <c r="F30" t="n">
-        <v>915</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>283.9166666666663</v>
+        <v>283.9499999999997</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1598,22 +1572,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>283.2</v>
+        <v>284.4</v>
       </c>
       <c r="C31" t="n">
-        <v>283.2</v>
+        <v>285.8</v>
       </c>
       <c r="D31" t="n">
-        <v>283.2</v>
+        <v>285.8</v>
       </c>
       <c r="E31" t="n">
-        <v>283.2</v>
+        <v>284.4</v>
       </c>
       <c r="F31" t="n">
-        <v>31.2224</v>
+        <v>915</v>
       </c>
       <c r="G31" t="n">
-        <v>283.903333333333</v>
+        <v>283.9166666666663</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1642,19 +1616,19 @@
         <v>283.2</v>
       </c>
       <c r="C32" t="n">
-        <v>284.9</v>
+        <v>283.2</v>
       </c>
       <c r="D32" t="n">
-        <v>284.9</v>
+        <v>283.2</v>
       </c>
       <c r="E32" t="n">
         <v>283.2</v>
       </c>
       <c r="F32" t="n">
-        <v>301.1510076774</v>
+        <v>31.2224</v>
       </c>
       <c r="G32" t="n">
-        <v>283.9349999999997</v>
+        <v>283.903333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1680,22 +1654,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>285.8</v>
+        <v>283.2</v>
       </c>
       <c r="C33" t="n">
-        <v>286.2</v>
+        <v>284.9</v>
       </c>
       <c r="D33" t="n">
-        <v>286.4</v>
+        <v>284.9</v>
       </c>
       <c r="E33" t="n">
-        <v>285.8</v>
+        <v>283.2</v>
       </c>
       <c r="F33" t="n">
-        <v>88.5684038446</v>
+        <v>301.1510076774</v>
       </c>
       <c r="G33" t="n">
-        <v>283.9116666666665</v>
+        <v>283.9349999999997</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1724,19 +1698,19 @@
         <v>285.8</v>
       </c>
       <c r="C34" t="n">
-        <v>287.7</v>
+        <v>286.2</v>
       </c>
       <c r="D34" t="n">
-        <v>287.7</v>
+        <v>286.4</v>
       </c>
       <c r="E34" t="n">
         <v>285.8</v>
       </c>
       <c r="F34" t="n">
-        <v>1339.188</v>
+        <v>88.5684038446</v>
       </c>
       <c r="G34" t="n">
-        <v>283.8816666666664</v>
+        <v>283.9116666666665</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1762,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>287.7</v>
+        <v>285.8</v>
       </c>
       <c r="C35" t="n">
         <v>287.7</v>
@@ -1771,13 +1745,13 @@
         <v>287.7</v>
       </c>
       <c r="E35" t="n">
-        <v>287.7</v>
+        <v>285.8</v>
       </c>
       <c r="F35" t="n">
-        <v>768.327</v>
+        <v>1339.188</v>
       </c>
       <c r="G35" t="n">
-        <v>283.8166666666665</v>
+        <v>283.8816666666664</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1815,10 +1789,10 @@
         <v>287.7</v>
       </c>
       <c r="F36" t="n">
-        <v>450.135</v>
+        <v>768.327</v>
       </c>
       <c r="G36" t="n">
-        <v>283.8283333333331</v>
+        <v>283.8166666666665</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1856,10 +1830,10 @@
         <v>287.7</v>
       </c>
       <c r="F37" t="n">
-        <v>488</v>
+        <v>450.135</v>
       </c>
       <c r="G37" t="n">
-        <v>283.8066666666665</v>
+        <v>283.8283333333331</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1885,22 +1859,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>286.7</v>
+        <v>287.7</v>
       </c>
       <c r="C38" t="n">
-        <v>286.7</v>
+        <v>287.7</v>
       </c>
       <c r="D38" t="n">
-        <v>286.7</v>
+        <v>287.7</v>
       </c>
       <c r="E38" t="n">
-        <v>286.7</v>
+        <v>287.7</v>
       </c>
       <c r="F38" t="n">
-        <v>168.9999</v>
+        <v>488</v>
       </c>
       <c r="G38" t="n">
-        <v>283.6949999999998</v>
+        <v>283.8066666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1926,22 +1900,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>287.7</v>
+        <v>286.7</v>
       </c>
       <c r="C39" t="n">
-        <v>288</v>
+        <v>286.7</v>
       </c>
       <c r="D39" t="n">
-        <v>288</v>
+        <v>286.7</v>
       </c>
       <c r="E39" t="n">
-        <v>287.7</v>
+        <v>286.7</v>
       </c>
       <c r="F39" t="n">
-        <v>199.7044</v>
+        <v>168.9999</v>
       </c>
       <c r="G39" t="n">
-        <v>283.6266666666665</v>
+        <v>283.6949999999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1967,7 +1941,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>288</v>
+        <v>287.7</v>
       </c>
       <c r="C40" t="n">
         <v>288</v>
@@ -1976,13 +1950,13 @@
         <v>288</v>
       </c>
       <c r="E40" t="n">
-        <v>288</v>
+        <v>287.7</v>
       </c>
       <c r="F40" t="n">
-        <v>37</v>
+        <v>199.7044</v>
       </c>
       <c r="G40" t="n">
-        <v>283.5966666666665</v>
+        <v>283.6266666666665</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2008,22 +1982,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>286.4</v>
+        <v>288</v>
       </c>
       <c r="C41" t="n">
-        <v>286.4</v>
+        <v>288</v>
       </c>
       <c r="D41" t="n">
-        <v>286.4</v>
+        <v>288</v>
       </c>
       <c r="E41" t="n">
-        <v>286.4</v>
+        <v>288</v>
       </c>
       <c r="F41" t="n">
-        <v>6.4342</v>
+        <v>37</v>
       </c>
       <c r="G41" t="n">
-        <v>283.7116666666665</v>
+        <v>283.5966666666665</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2049,22 +2023,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>288</v>
+        <v>286.4</v>
       </c>
       <c r="C42" t="n">
-        <v>292.7</v>
+        <v>286.4</v>
       </c>
       <c r="D42" t="n">
-        <v>292.7</v>
+        <v>286.4</v>
       </c>
       <c r="E42" t="n">
-        <v>288</v>
+        <v>286.4</v>
       </c>
       <c r="F42" t="n">
-        <v>1684.6124</v>
+        <v>6.4342</v>
       </c>
       <c r="G42" t="n">
-        <v>283.9249999999999</v>
+        <v>283.7116666666665</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2090,22 +2064,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>291.9</v>
+        <v>288</v>
       </c>
       <c r="C43" t="n">
-        <v>286.5</v>
+        <v>292.7</v>
       </c>
       <c r="D43" t="n">
-        <v>291.9</v>
+        <v>292.7</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5</v>
+        <v>288</v>
       </c>
       <c r="F43" t="n">
-        <v>150.975</v>
+        <v>1684.6124</v>
       </c>
       <c r="G43" t="n">
-        <v>283.9699999999999</v>
+        <v>283.9249999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2131,22 +2105,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>288</v>
+        <v>291.9</v>
       </c>
       <c r="C44" t="n">
-        <v>287.2</v>
+        <v>286.5</v>
       </c>
       <c r="D44" t="n">
-        <v>288</v>
+        <v>291.9</v>
       </c>
       <c r="E44" t="n">
-        <v>287.2</v>
+        <v>286.5</v>
       </c>
       <c r="F44" t="n">
-        <v>25.8637</v>
+        <v>150.975</v>
       </c>
       <c r="G44" t="n">
-        <v>284.0283333333333</v>
+        <v>283.9699999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2172,22 +2146,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>286.7</v>
+        <v>288</v>
       </c>
       <c r="C45" t="n">
-        <v>286.7</v>
+        <v>287.2</v>
       </c>
       <c r="D45" t="n">
-        <v>286.7</v>
+        <v>288</v>
       </c>
       <c r="E45" t="n">
-        <v>286.7</v>
+        <v>287.2</v>
       </c>
       <c r="F45" t="n">
-        <v>2.1161</v>
+        <v>25.8637</v>
       </c>
       <c r="G45" t="n">
-        <v>284.1066666666666</v>
+        <v>284.0283333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2213,22 +2187,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>289.9</v>
+        <v>286.7</v>
       </c>
       <c r="C46" t="n">
-        <v>290.9</v>
+        <v>286.7</v>
       </c>
       <c r="D46" t="n">
-        <v>290.9</v>
+        <v>286.7</v>
       </c>
       <c r="E46" t="n">
-        <v>289.9</v>
+        <v>286.7</v>
       </c>
       <c r="F46" t="n">
-        <v>1628.4669382949</v>
+        <v>2.1161</v>
       </c>
       <c r="G46" t="n">
-        <v>284.2533333333333</v>
+        <v>284.1066666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2254,22 +2228,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>286</v>
+        <v>289.9</v>
       </c>
       <c r="C47" t="n">
-        <v>286</v>
+        <v>290.9</v>
       </c>
       <c r="D47" t="n">
-        <v>286</v>
+        <v>290.9</v>
       </c>
       <c r="E47" t="n">
-        <v>286</v>
+        <v>289.9</v>
       </c>
       <c r="F47" t="n">
-        <v>1839.8507</v>
+        <v>1628.4669382949</v>
       </c>
       <c r="G47" t="n">
-        <v>284.2683333333333</v>
+        <v>284.2533333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2295,22 +2269,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C48" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D48" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E48" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F48" t="n">
-        <v>2359.7736</v>
+        <v>1839.8507</v>
       </c>
       <c r="G48" t="n">
-        <v>284.3666666666667</v>
+        <v>284.2683333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2336,22 +2310,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C49" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D49" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E49" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F49" t="n">
-        <v>260.078</v>
+        <v>2359.7736</v>
       </c>
       <c r="G49" t="n">
-        <v>284.4283333333333</v>
+        <v>284.3666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2377,22 +2351,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C50" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D50" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E50" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F50" t="n">
-        <v>189.1944</v>
+        <v>260.078</v>
       </c>
       <c r="G50" t="n">
-        <v>284.4816666666667</v>
+        <v>284.4283333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2430,10 +2404,10 @@
         <v>285</v>
       </c>
       <c r="F51" t="n">
-        <v>6.0113</v>
+        <v>189.1944</v>
       </c>
       <c r="G51" t="n">
-        <v>284.5333333333334</v>
+        <v>284.4816666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2459,22 +2433,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C52" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D52" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E52" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F52" t="n">
-        <v>1355.7668</v>
+        <v>6.0113</v>
       </c>
       <c r="G52" t="n">
-        <v>284.5666666666667</v>
+        <v>284.5333333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2512,10 +2486,10 @@
         <v>286</v>
       </c>
       <c r="F53" t="n">
-        <v>13218.8018</v>
+        <v>1355.7668</v>
       </c>
       <c r="G53" t="n">
-        <v>284.66</v>
+        <v>284.5666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2553,10 +2527,10 @@
         <v>286</v>
       </c>
       <c r="F54" t="n">
-        <v>4914.4086</v>
+        <v>13218.8018</v>
       </c>
       <c r="G54" t="n">
-        <v>284.7266666666666</v>
+        <v>284.66</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2582,22 +2556,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C55" t="n">
-        <v>286.9</v>
+        <v>286</v>
       </c>
       <c r="D55" t="n">
-        <v>286.9</v>
+        <v>286</v>
       </c>
       <c r="E55" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F55" t="n">
-        <v>1751.5048</v>
+        <v>4914.4086</v>
       </c>
       <c r="G55" t="n">
-        <v>284.7733333333334</v>
+        <v>284.7266666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2623,7 +2597,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>286.9</v>
+        <v>285</v>
       </c>
       <c r="C56" t="n">
         <v>286.9</v>
@@ -2632,13 +2606,13 @@
         <v>286.9</v>
       </c>
       <c r="E56" t="n">
-        <v>286.9</v>
+        <v>285</v>
       </c>
       <c r="F56" t="n">
-        <v>377</v>
+        <v>1751.5048</v>
       </c>
       <c r="G56" t="n">
-        <v>284.7916666666667</v>
+        <v>284.7733333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2664,22 +2638,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>285</v>
+        <v>286.9</v>
       </c>
       <c r="C57" t="n">
-        <v>284</v>
+        <v>286.9</v>
       </c>
       <c r="D57" t="n">
-        <v>285</v>
+        <v>286.9</v>
       </c>
       <c r="E57" t="n">
-        <v>284</v>
+        <v>286.9</v>
       </c>
       <c r="F57" t="n">
-        <v>2506.882</v>
+        <v>377</v>
       </c>
       <c r="G57" t="n">
-        <v>284.7783333333334</v>
+        <v>284.7916666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2705,22 +2679,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C58" t="n">
         <v>284</v>
       </c>
       <c r="D58" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E58" t="n">
         <v>284</v>
       </c>
       <c r="F58" t="n">
-        <v>28</v>
+        <v>2506.882</v>
       </c>
       <c r="G58" t="n">
-        <v>284.7683333333334</v>
+        <v>284.7783333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2746,22 +2720,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>283.9</v>
+        <v>284</v>
       </c>
       <c r="C59" t="n">
-        <v>283.9</v>
+        <v>284</v>
       </c>
       <c r="D59" t="n">
-        <v>283.9</v>
+        <v>284</v>
       </c>
       <c r="E59" t="n">
-        <v>283.9</v>
+        <v>284</v>
       </c>
       <c r="F59" t="n">
-        <v>1638.6592</v>
+        <v>28</v>
       </c>
       <c r="G59" t="n">
-        <v>284.7383333333335</v>
+        <v>284.7683333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2790,19 +2764,19 @@
         <v>283.9</v>
       </c>
       <c r="C60" t="n">
-        <v>287.6</v>
+        <v>283.9</v>
       </c>
       <c r="D60" t="n">
-        <v>287.6</v>
+        <v>283.9</v>
       </c>
       <c r="E60" t="n">
         <v>283.9</v>
       </c>
       <c r="F60" t="n">
-        <v>10813.6717</v>
+        <v>1638.6592</v>
       </c>
       <c r="G60" t="n">
-        <v>284.7683333333334</v>
+        <v>284.7383333333335</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2828,22 +2802,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>286.7</v>
+        <v>283.9</v>
       </c>
       <c r="C61" t="n">
-        <v>286.7</v>
+        <v>287.6</v>
       </c>
       <c r="D61" t="n">
-        <v>286.7</v>
+        <v>287.6</v>
       </c>
       <c r="E61" t="n">
-        <v>286.7</v>
+        <v>283.9</v>
       </c>
       <c r="F61" t="n">
-        <v>1232.394</v>
+        <v>10813.6717</v>
       </c>
       <c r="G61" t="n">
-        <v>284.8816666666668</v>
+        <v>284.7683333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2881,10 +2855,10 @@
         <v>286.7</v>
       </c>
       <c r="F62" t="n">
-        <v>1899.9444</v>
+        <v>1232.394</v>
       </c>
       <c r="G62" t="n">
-        <v>284.9783333333334</v>
+        <v>284.8816666666668</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2910,22 +2884,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>283.8</v>
+        <v>286.7</v>
       </c>
       <c r="C63" t="n">
-        <v>283.8</v>
+        <v>286.7</v>
       </c>
       <c r="D63" t="n">
-        <v>283.8</v>
+        <v>286.7</v>
       </c>
       <c r="E63" t="n">
-        <v>283.8</v>
+        <v>286.7</v>
       </c>
       <c r="F63" t="n">
-        <v>2648.0102</v>
+        <v>1899.9444</v>
       </c>
       <c r="G63" t="n">
-        <v>285.025</v>
+        <v>284.9783333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2951,22 +2925,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>283</v>
+        <v>283.8</v>
       </c>
       <c r="C64" t="n">
-        <v>288.8</v>
+        <v>283.8</v>
       </c>
       <c r="D64" t="n">
-        <v>288.8</v>
+        <v>283.8</v>
       </c>
       <c r="E64" t="n">
-        <v>283</v>
+        <v>283.8</v>
       </c>
       <c r="F64" t="n">
-        <v>1113</v>
+        <v>2648.0102</v>
       </c>
       <c r="G64" t="n">
-        <v>285.1750000000001</v>
+        <v>285.025</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2995,19 +2969,19 @@
         <v>283</v>
       </c>
       <c r="C65" t="n">
-        <v>286.8</v>
+        <v>288.8</v>
       </c>
       <c r="D65" t="n">
-        <v>287.9</v>
+        <v>288.8</v>
       </c>
       <c r="E65" t="n">
-        <v>282.9</v>
+        <v>283</v>
       </c>
       <c r="F65" t="n">
-        <v>12987.3778</v>
+        <v>1113</v>
       </c>
       <c r="G65" t="n">
-        <v>285.2916666666667</v>
+        <v>285.1750000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3033,22 +3007,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>287.9</v>
+        <v>283</v>
       </c>
       <c r="C66" t="n">
-        <v>287.9</v>
+        <v>286.8</v>
       </c>
       <c r="D66" t="n">
         <v>287.9</v>
       </c>
       <c r="E66" t="n">
-        <v>287.9</v>
+        <v>282.9</v>
       </c>
       <c r="F66" t="n">
-        <v>2447.0269</v>
+        <v>12987.3778</v>
       </c>
       <c r="G66" t="n">
-        <v>285.4266666666668</v>
+        <v>285.2916666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3074,22 +3048,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>288.4</v>
+        <v>287.9</v>
       </c>
       <c r="C67" t="n">
-        <v>288.4</v>
+        <v>287.9</v>
       </c>
       <c r="D67" t="n">
-        <v>288.4</v>
+        <v>287.9</v>
       </c>
       <c r="E67" t="n">
-        <v>288.4</v>
+        <v>287.9</v>
       </c>
       <c r="F67" t="n">
-        <v>1303.5337</v>
+        <v>2447.0269</v>
       </c>
       <c r="G67" t="n">
-        <v>285.5716666666668</v>
+        <v>285.4266666666668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3115,22 +3089,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>286.8</v>
+        <v>288.4</v>
       </c>
       <c r="C68" t="n">
-        <v>280.2</v>
+        <v>288.4</v>
       </c>
       <c r="D68" t="n">
-        <v>286.8</v>
+        <v>288.4</v>
       </c>
       <c r="E68" t="n">
-        <v>280.2</v>
+        <v>288.4</v>
       </c>
       <c r="F68" t="n">
-        <v>26658.2977</v>
+        <v>1303.5337</v>
       </c>
       <c r="G68" t="n">
-        <v>285.5766666666668</v>
+        <v>285.5716666666668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3162,16 +3136,16 @@
         <v>280.2</v>
       </c>
       <c r="D69" t="n">
-        <v>288.4</v>
+        <v>286.8</v>
       </c>
       <c r="E69" t="n">
         <v>280.2</v>
       </c>
       <c r="F69" t="n">
-        <v>40405.9369</v>
+        <v>26658.2977</v>
       </c>
       <c r="G69" t="n">
-        <v>285.5833333333334</v>
+        <v>285.5766666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3197,22 +3171,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>286.7</v>
+        <v>286.8</v>
       </c>
       <c r="C70" t="n">
-        <v>286.7</v>
+        <v>280.2</v>
       </c>
       <c r="D70" t="n">
-        <v>286.7</v>
+        <v>288.4</v>
       </c>
       <c r="E70" t="n">
-        <v>286.7</v>
+        <v>280.2</v>
       </c>
       <c r="F70" t="n">
-        <v>95.1284</v>
+        <v>40405.9369</v>
       </c>
       <c r="G70" t="n">
-        <v>285.6983333333335</v>
+        <v>285.5833333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3238,28 +3212,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>283.1</v>
+        <v>286.7</v>
       </c>
       <c r="C71" t="n">
-        <v>283.1</v>
+        <v>286.7</v>
       </c>
       <c r="D71" t="n">
-        <v>283.1</v>
+        <v>286.7</v>
       </c>
       <c r="E71" t="n">
-        <v>283.1</v>
+        <v>286.7</v>
       </c>
       <c r="F71" t="n">
-        <v>2784.7372</v>
+        <v>95.1284</v>
       </c>
       <c r="G71" t="n">
-        <v>285.7516666666668</v>
+        <v>285.6983333333335</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
@@ -3267,11 +3241,11 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>1.019660471765547</v>
       </c>
     </row>
     <row r="72">
@@ -3279,38 +3253,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>283</v>
+        <v>283.1</v>
       </c>
       <c r="C72" t="n">
-        <v>281.4</v>
+        <v>283.1</v>
       </c>
       <c r="D72" t="n">
-        <v>283</v>
+        <v>283.1</v>
       </c>
       <c r="E72" t="n">
-        <v>281.4</v>
+        <v>283.1</v>
       </c>
       <c r="F72" t="n">
-        <v>374.7194</v>
+        <v>2784.7372</v>
       </c>
       <c r="G72" t="n">
-        <v>285.7366666666668</v>
+        <v>285.7516666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3323,35 +3291,29 @@
         <v>283</v>
       </c>
       <c r="C73" t="n">
-        <v>281.2</v>
+        <v>281.4</v>
       </c>
       <c r="D73" t="n">
         <v>283</v>
       </c>
       <c r="E73" t="n">
-        <v>281.2</v>
+        <v>281.4</v>
       </c>
       <c r="F73" t="n">
-        <v>3163.2761</v>
+        <v>374.7194</v>
       </c>
       <c r="G73" t="n">
-        <v>285.7700000000002</v>
+        <v>285.7366666666668</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3361,22 +3323,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>283.1</v>
+        <v>283</v>
       </c>
       <c r="C74" t="n">
-        <v>283.1</v>
+        <v>281.2</v>
       </c>
       <c r="D74" t="n">
-        <v>283.1</v>
+        <v>283</v>
       </c>
       <c r="E74" t="n">
-        <v>283.1</v>
+        <v>281.2</v>
       </c>
       <c r="F74" t="n">
-        <v>116.2214</v>
+        <v>3163.2761</v>
       </c>
       <c r="G74" t="n">
-        <v>285.7900000000001</v>
+        <v>285.7700000000002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3385,14 +3347,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3414,10 +3370,10 @@
         <v>283.1</v>
       </c>
       <c r="F75" t="n">
-        <v>884.9188</v>
+        <v>116.2214</v>
       </c>
       <c r="G75" t="n">
-        <v>285.7666666666667</v>
+        <v>285.7900000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3426,14 +3382,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3393,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>283</v>
+        <v>283.1</v>
       </c>
       <c r="C76" t="n">
-        <v>281.1</v>
+        <v>283.1</v>
       </c>
       <c r="D76" t="n">
-        <v>283</v>
+        <v>283.1</v>
       </c>
       <c r="E76" t="n">
-        <v>281.1</v>
+        <v>283.1</v>
       </c>
       <c r="F76" t="n">
-        <v>1236.9203</v>
+        <v>884.9188</v>
       </c>
       <c r="G76" t="n">
-        <v>285.7416666666667</v>
+        <v>285.7666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3467,14 +3417,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3487,19 +3431,19 @@
         <v>283</v>
       </c>
       <c r="C77" t="n">
-        <v>280.5</v>
+        <v>281.1</v>
       </c>
       <c r="D77" t="n">
         <v>283</v>
       </c>
       <c r="E77" t="n">
-        <v>280.5</v>
+        <v>281.1</v>
       </c>
       <c r="F77" t="n">
-        <v>1935.6888</v>
+        <v>1236.9203</v>
       </c>
       <c r="G77" t="n">
-        <v>285.66</v>
+        <v>285.7416666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3508,14 +3452,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3528,19 +3466,19 @@
         <v>283</v>
       </c>
       <c r="C78" t="n">
-        <v>283</v>
+        <v>280.5</v>
       </c>
       <c r="D78" t="n">
         <v>283</v>
       </c>
       <c r="E78" t="n">
-        <v>283</v>
+        <v>280.5</v>
       </c>
       <c r="F78" t="n">
-        <v>110.83</v>
+        <v>1935.6888</v>
       </c>
       <c r="G78" t="n">
-        <v>285.61</v>
+        <v>285.66</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3549,14 +3487,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3578,10 +3510,10 @@
         <v>283</v>
       </c>
       <c r="F79" t="n">
-        <v>464.5269</v>
+        <v>110.83</v>
       </c>
       <c r="G79" t="n">
-        <v>285.5416666666667</v>
+        <v>285.61</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3590,14 +3522,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3607,22 +3533,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>280.6</v>
+        <v>283</v>
       </c>
       <c r="C80" t="n">
-        <v>280.6</v>
+        <v>283</v>
       </c>
       <c r="D80" t="n">
-        <v>280.6</v>
+        <v>283</v>
       </c>
       <c r="E80" t="n">
-        <v>280.6</v>
+        <v>283</v>
       </c>
       <c r="F80" t="n">
-        <v>332.9218</v>
+        <v>464.5269</v>
       </c>
       <c r="G80" t="n">
-        <v>285.4350000000001</v>
+        <v>285.5416666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3631,14 +3557,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3648,22 +3568,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>278.7</v>
+        <v>280.6</v>
       </c>
       <c r="C81" t="n">
-        <v>278.1</v>
+        <v>280.6</v>
       </c>
       <c r="D81" t="n">
-        <v>278.7</v>
+        <v>280.6</v>
       </c>
       <c r="E81" t="n">
-        <v>278.1</v>
+        <v>280.6</v>
       </c>
       <c r="F81" t="n">
-        <v>1622.4556</v>
+        <v>332.9218</v>
       </c>
       <c r="G81" t="n">
-        <v>285.2616666666667</v>
+        <v>285.4350000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3672,14 +3592,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3689,22 +3603,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>278.3</v>
+        <v>278.7</v>
       </c>
       <c r="C82" t="n">
-        <v>278.3</v>
+        <v>278.1</v>
       </c>
       <c r="D82" t="n">
-        <v>278.3</v>
+        <v>278.7</v>
       </c>
       <c r="E82" t="n">
-        <v>278.3</v>
+        <v>278.1</v>
       </c>
       <c r="F82" t="n">
-        <v>13.6555</v>
+        <v>1622.4556</v>
       </c>
       <c r="G82" t="n">
-        <v>285.0516666666666</v>
+        <v>285.2616666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3713,14 +3627,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3730,22 +3638,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>281</v>
+        <v>278.3</v>
       </c>
       <c r="C83" t="n">
-        <v>281</v>
+        <v>278.3</v>
       </c>
       <c r="D83" t="n">
-        <v>281</v>
+        <v>278.3</v>
       </c>
       <c r="E83" t="n">
-        <v>281</v>
+        <v>278.3</v>
       </c>
       <c r="F83" t="n">
-        <v>28</v>
+        <v>13.6555</v>
       </c>
       <c r="G83" t="n">
-        <v>284.9916666666667</v>
+        <v>285.0516666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3754,14 +3662,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3771,40 +3673,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C84" t="n">
-        <v>277.5</v>
+        <v>281</v>
       </c>
       <c r="D84" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E84" t="n">
-        <v>277.5</v>
+        <v>281</v>
       </c>
       <c r="F84" t="n">
-        <v>9859.5496</v>
+        <v>28</v>
       </c>
       <c r="G84" t="n">
-        <v>284.8666666666667</v>
+        <v>284.9916666666667</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>281</v>
-      </c>
-      <c r="K84" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3814,40 +3708,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>281.8</v>
+        <v>279</v>
       </c>
       <c r="C85" t="n">
-        <v>281.8</v>
+        <v>277.5</v>
       </c>
       <c r="D85" t="n">
-        <v>281.8</v>
+        <v>279</v>
       </c>
       <c r="E85" t="n">
-        <v>281.8</v>
+        <v>277.5</v>
       </c>
       <c r="F85" t="n">
-        <v>46</v>
+        <v>9859.5496</v>
       </c>
       <c r="G85" t="n">
-        <v>284.82</v>
+        <v>284.8666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>277.5</v>
-      </c>
-      <c r="K85" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3857,22 +3743,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>281</v>
+        <v>281.8</v>
       </c>
       <c r="C86" t="n">
-        <v>283.4</v>
+        <v>281.8</v>
       </c>
       <c r="D86" t="n">
-        <v>283.4</v>
+        <v>281.8</v>
       </c>
       <c r="E86" t="n">
-        <v>281</v>
+        <v>281.8</v>
       </c>
       <c r="F86" t="n">
-        <v>2428.0627</v>
+        <v>46</v>
       </c>
       <c r="G86" t="n">
-        <v>284.8050000000001</v>
+        <v>284.82</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3881,14 +3767,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3898,7 +3778,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>283.4</v>
+        <v>281</v>
       </c>
       <c r="C87" t="n">
         <v>283.4</v>
@@ -3907,13 +3787,13 @@
         <v>283.4</v>
       </c>
       <c r="E87" t="n">
-        <v>283.4</v>
+        <v>281</v>
       </c>
       <c r="F87" t="n">
-        <v>38</v>
+        <v>2428.0627</v>
       </c>
       <c r="G87" t="n">
-        <v>284.8083333333334</v>
+        <v>284.8050000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3922,14 +3802,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3939,22 +3813,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>281</v>
+        <v>283.4</v>
       </c>
       <c r="C88" t="n">
-        <v>281</v>
+        <v>283.4</v>
       </c>
       <c r="D88" t="n">
-        <v>281</v>
+        <v>283.4</v>
       </c>
       <c r="E88" t="n">
-        <v>281</v>
+        <v>283.4</v>
       </c>
       <c r="F88" t="n">
-        <v>1.8182</v>
+        <v>38</v>
       </c>
       <c r="G88" t="n">
-        <v>284.7716666666667</v>
+        <v>284.8083333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3963,14 +3837,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3980,22 +3848,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>283.4</v>
+        <v>281</v>
       </c>
       <c r="C89" t="n">
-        <v>286.8</v>
+        <v>281</v>
       </c>
       <c r="D89" t="n">
-        <v>286.8</v>
+        <v>281</v>
       </c>
       <c r="E89" t="n">
-        <v>283.4</v>
+        <v>281</v>
       </c>
       <c r="F89" t="n">
-        <v>162</v>
+        <v>1.8182</v>
       </c>
       <c r="G89" t="n">
-        <v>284.8316666666667</v>
+        <v>284.7716666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4004,14 +3872,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4021,22 +3883,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>284</v>
+        <v>283.4</v>
       </c>
       <c r="C90" t="n">
-        <v>280.9</v>
+        <v>286.8</v>
       </c>
       <c r="D90" t="n">
-        <v>284</v>
+        <v>286.8</v>
       </c>
       <c r="E90" t="n">
-        <v>280.9</v>
+        <v>283.4</v>
       </c>
       <c r="F90" t="n">
-        <v>1568.7979</v>
+        <v>162</v>
       </c>
       <c r="G90" t="n">
-        <v>284.7500000000001</v>
+        <v>284.8316666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4045,14 +3907,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4062,22 +3918,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C91" t="n">
-        <v>286.1</v>
+        <v>280.9</v>
       </c>
       <c r="D91" t="n">
-        <v>286.1</v>
+        <v>284</v>
       </c>
       <c r="E91" t="n">
-        <v>286</v>
+        <v>280.9</v>
       </c>
       <c r="F91" t="n">
-        <v>750.0366</v>
+        <v>1568.7979</v>
       </c>
       <c r="G91" t="n">
-        <v>284.7983333333333</v>
+        <v>284.7500000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4086,14 +3942,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4103,22 +3953,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>286.8</v>
+        <v>286</v>
       </c>
       <c r="C92" t="n">
-        <v>287.3</v>
+        <v>286.1</v>
       </c>
       <c r="D92" t="n">
-        <v>287.3</v>
+        <v>286.1</v>
       </c>
       <c r="E92" t="n">
-        <v>286.8</v>
+        <v>286</v>
       </c>
       <c r="F92" t="n">
-        <v>1103.8698</v>
+        <v>750.0366</v>
       </c>
       <c r="G92" t="n">
-        <v>284.8383333333333</v>
+        <v>284.7983333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4127,14 +3977,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4144,22 +3988,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>286.4</v>
+        <v>286.8</v>
       </c>
       <c r="C93" t="n">
+        <v>287.3</v>
+      </c>
+      <c r="D93" t="n">
+        <v>287.3</v>
+      </c>
+      <c r="E93" t="n">
         <v>286.8</v>
       </c>
-      <c r="D93" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="E93" t="n">
-        <v>286.4</v>
-      </c>
       <c r="F93" t="n">
-        <v>2657.1159</v>
+        <v>1103.8698</v>
       </c>
       <c r="G93" t="n">
-        <v>284.8483333333333</v>
+        <v>284.8383333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4168,14 +4012,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4185,22 +4023,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>286.8</v>
+        <v>286.4</v>
       </c>
       <c r="C94" t="n">
         <v>286.8</v>
       </c>
       <c r="D94" t="n">
-        <v>287.8</v>
+        <v>287.9</v>
       </c>
       <c r="E94" t="n">
-        <v>286.8</v>
+        <v>286.4</v>
       </c>
       <c r="F94" t="n">
-        <v>446.0366</v>
+        <v>2657.1159</v>
       </c>
       <c r="G94" t="n">
-        <v>284.8333333333333</v>
+        <v>284.8483333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4209,14 +4047,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4226,22 +4058,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>286.2</v>
+        <v>286.8</v>
       </c>
       <c r="C95" t="n">
-        <v>286.2</v>
+        <v>286.8</v>
       </c>
       <c r="D95" t="n">
-        <v>286.2</v>
+        <v>287.8</v>
       </c>
       <c r="E95" t="n">
-        <v>286.2</v>
+        <v>286.8</v>
       </c>
       <c r="F95" t="n">
-        <v>2447.0269</v>
+        <v>446.0366</v>
       </c>
       <c r="G95" t="n">
-        <v>284.8083333333333</v>
+        <v>284.8333333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4250,14 +4082,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4267,22 +4093,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>287</v>
+        <v>286.2</v>
       </c>
       <c r="C96" t="n">
-        <v>287</v>
+        <v>286.2</v>
       </c>
       <c r="D96" t="n">
-        <v>287</v>
+        <v>286.2</v>
       </c>
       <c r="E96" t="n">
-        <v>287</v>
+        <v>286.2</v>
       </c>
       <c r="F96" t="n">
-        <v>137.0411</v>
+        <v>2447.0269</v>
       </c>
       <c r="G96" t="n">
-        <v>284.7966666666666</v>
+        <v>284.8083333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4291,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4308,22 +4128,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C97" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D97" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E97" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F97" t="n">
-        <v>494.1482</v>
+        <v>137.0411</v>
       </c>
       <c r="G97" t="n">
-        <v>284.7683333333333</v>
+        <v>284.7966666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4332,14 +4152,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4361,10 +4175,10 @@
         <v>286</v>
       </c>
       <c r="F98" t="n">
-        <v>34.8776</v>
+        <v>494.1482</v>
       </c>
       <c r="G98" t="n">
-        <v>284.7566666666665</v>
+        <v>284.7683333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4373,14 +4187,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4390,38 +4198,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C99" t="n">
-        <v>281.1</v>
+        <v>286</v>
       </c>
       <c r="D99" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E99" t="n">
-        <v>281.1</v>
+        <v>286</v>
       </c>
       <c r="F99" t="n">
-        <v>1542.1412</v>
+        <v>34.8776</v>
       </c>
       <c r="G99" t="n">
-        <v>284.6416666666665</v>
+        <v>284.7566666666665</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4434,35 +4236,29 @@
         <v>283</v>
       </c>
       <c r="C100" t="n">
-        <v>283</v>
+        <v>281.1</v>
       </c>
       <c r="D100" t="n">
         <v>283</v>
       </c>
       <c r="E100" t="n">
-        <v>283</v>
+        <v>281.1</v>
       </c>
       <c r="F100" t="n">
-        <v>555</v>
+        <v>1542.1412</v>
       </c>
       <c r="G100" t="n">
-        <v>284.5583333333332</v>
+        <v>284.6416666666665</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4484,10 +4280,10 @@
         <v>283</v>
       </c>
       <c r="F101" t="n">
-        <v>332.83</v>
+        <v>555</v>
       </c>
       <c r="G101" t="n">
-        <v>284.5016666666665</v>
+        <v>284.5583333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4496,14 +4292,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4516,19 +4306,19 @@
         <v>283</v>
       </c>
       <c r="C102" t="n">
-        <v>280.7</v>
+        <v>283</v>
       </c>
       <c r="D102" t="n">
         <v>283</v>
       </c>
       <c r="E102" t="n">
-        <v>280.7</v>
+        <v>283</v>
       </c>
       <c r="F102" t="n">
-        <v>100.21</v>
+        <v>332.83</v>
       </c>
       <c r="G102" t="n">
-        <v>284.3016666666665</v>
+        <v>284.5016666666665</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4537,14 +4327,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4557,19 +4341,19 @@
         <v>283</v>
       </c>
       <c r="C103" t="n">
-        <v>283</v>
+        <v>280.7</v>
       </c>
       <c r="D103" t="n">
         <v>283</v>
       </c>
       <c r="E103" t="n">
-        <v>283</v>
+        <v>280.7</v>
       </c>
       <c r="F103" t="n">
-        <v>111</v>
+        <v>100.21</v>
       </c>
       <c r="G103" t="n">
-        <v>284.2433333333332</v>
+        <v>284.3016666666665</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4578,14 +4362,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4607,10 +4385,10 @@
         <v>283</v>
       </c>
       <c r="F104" t="n">
-        <v>35.4855</v>
+        <v>111</v>
       </c>
       <c r="G104" t="n">
-        <v>284.1733333333332</v>
+        <v>284.2433333333332</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4619,14 +4397,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4636,22 +4408,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C105" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D105" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E105" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F105" t="n">
-        <v>2632.7217</v>
+        <v>35.4855</v>
       </c>
       <c r="G105" t="n">
-        <v>284.1283333333332</v>
+        <v>284.1733333333332</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4660,14 +4432,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4677,22 +4443,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>286.8</v>
+        <v>284</v>
       </c>
       <c r="C106" t="n">
-        <v>286.8</v>
+        <v>284</v>
       </c>
       <c r="D106" t="n">
-        <v>288.9</v>
+        <v>284</v>
       </c>
       <c r="E106" t="n">
-        <v>286.8</v>
+        <v>284</v>
       </c>
       <c r="F106" t="n">
-        <v>711.0414</v>
+        <v>2632.7217</v>
       </c>
       <c r="G106" t="n">
-        <v>284.0599999999998</v>
+        <v>284.1283333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4701,14 +4467,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4724,16 +4484,16 @@
         <v>286.8</v>
       </c>
       <c r="D107" t="n">
-        <v>286.8</v>
+        <v>288.9</v>
       </c>
       <c r="E107" t="n">
         <v>286.8</v>
       </c>
       <c r="F107" t="n">
-        <v>23</v>
+        <v>711.0414</v>
       </c>
       <c r="G107" t="n">
-        <v>284.0733333333331</v>
+        <v>284.0599999999998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4742,14 +4502,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4771,10 +4525,10 @@
         <v>286.8</v>
       </c>
       <c r="F108" t="n">
-        <v>307.9586</v>
+        <v>23</v>
       </c>
       <c r="G108" t="n">
-        <v>284.1033333333331</v>
+        <v>284.0733333333331</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4783,14 +4537,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4800,22 +4548,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>284</v>
+        <v>286.8</v>
       </c>
       <c r="C109" t="n">
-        <v>284</v>
+        <v>286.8</v>
       </c>
       <c r="D109" t="n">
-        <v>284</v>
+        <v>286.8</v>
       </c>
       <c r="E109" t="n">
-        <v>284</v>
+        <v>286.8</v>
       </c>
       <c r="F109" t="n">
-        <v>5.383</v>
+        <v>307.9586</v>
       </c>
       <c r="G109" t="n">
-        <v>284.0699999999998</v>
+        <v>284.1033333333331</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4824,14 +4572,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4844,19 +4586,19 @@
         <v>284</v>
       </c>
       <c r="C110" t="n">
-        <v>283.1</v>
+        <v>284</v>
       </c>
       <c r="D110" t="n">
         <v>284</v>
       </c>
       <c r="E110" t="n">
-        <v>283.1</v>
+        <v>284</v>
       </c>
       <c r="F110" t="n">
-        <v>17.8736</v>
+        <v>5.383</v>
       </c>
       <c r="G110" t="n">
-        <v>284.0383333333331</v>
+        <v>284.0699999999998</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4865,14 +4607,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4882,22 +4618,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>286.8</v>
+        <v>284</v>
       </c>
       <c r="C111" t="n">
-        <v>286.8</v>
+        <v>283.1</v>
       </c>
       <c r="D111" t="n">
-        <v>286.8</v>
+        <v>284</v>
       </c>
       <c r="E111" t="n">
-        <v>286.8</v>
+        <v>283.1</v>
       </c>
       <c r="F111" t="n">
-        <v>178.6734</v>
+        <v>17.8736</v>
       </c>
       <c r="G111" t="n">
-        <v>284.068333333333</v>
+        <v>284.0383333333331</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4906,14 +4642,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4926,19 +4656,19 @@
         <v>286.8</v>
       </c>
       <c r="C112" t="n">
-        <v>293.5</v>
+        <v>286.8</v>
       </c>
       <c r="D112" t="n">
-        <v>293.5</v>
+        <v>286.8</v>
       </c>
       <c r="E112" t="n">
         <v>286.8</v>
       </c>
       <c r="F112" t="n">
-        <v>851</v>
+        <v>178.6734</v>
       </c>
       <c r="G112" t="n">
-        <v>284.193333333333</v>
+        <v>284.068333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4947,14 +4677,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4964,22 +4688,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>289</v>
+        <v>286.8</v>
       </c>
       <c r="C113" t="n">
-        <v>289</v>
+        <v>293.5</v>
       </c>
       <c r="D113" t="n">
-        <v>289</v>
+        <v>293.5</v>
       </c>
       <c r="E113" t="n">
-        <v>288</v>
+        <v>286.8</v>
       </c>
       <c r="F113" t="n">
-        <v>1476.4906</v>
+        <v>851</v>
       </c>
       <c r="G113" t="n">
-        <v>284.2433333333331</v>
+        <v>284.193333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4988,14 +4712,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5005,22 +4723,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>287.4</v>
+        <v>289</v>
       </c>
       <c r="C114" t="n">
-        <v>287.4</v>
+        <v>289</v>
       </c>
       <c r="D114" t="n">
-        <v>287.4</v>
+        <v>289</v>
       </c>
       <c r="E114" t="n">
-        <v>287.4</v>
+        <v>288</v>
       </c>
       <c r="F114" t="n">
-        <v>1156.924</v>
+        <v>1476.4906</v>
       </c>
       <c r="G114" t="n">
-        <v>284.2666666666664</v>
+        <v>284.2433333333331</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5029,14 +4747,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5046,22 +4758,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>289</v>
+        <v>287.4</v>
       </c>
       <c r="C115" t="n">
-        <v>289</v>
+        <v>287.4</v>
       </c>
       <c r="D115" t="n">
-        <v>289</v>
+        <v>287.4</v>
       </c>
       <c r="E115" t="n">
-        <v>289</v>
+        <v>287.4</v>
       </c>
       <c r="F115" t="n">
-        <v>10.23183391</v>
+        <v>1156.924</v>
       </c>
       <c r="G115" t="n">
-        <v>284.3016666666664</v>
+        <v>284.2666666666664</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5070,14 +4782,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5090,19 +4796,19 @@
         <v>289</v>
       </c>
       <c r="C116" t="n">
-        <v>292.8</v>
+        <v>289</v>
       </c>
       <c r="D116" t="n">
-        <v>292.8</v>
+        <v>289</v>
       </c>
       <c r="E116" t="n">
         <v>289</v>
       </c>
       <c r="F116" t="n">
-        <v>1156.924</v>
+        <v>10.23183391</v>
       </c>
       <c r="G116" t="n">
-        <v>284.3999999999997</v>
+        <v>284.3016666666664</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5111,14 +4817,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5128,22 +4828,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>289</v>
+      </c>
+      <c r="C117" t="n">
         <v>292.8</v>
       </c>
-      <c r="C117" t="n">
-        <v>293.9</v>
-      </c>
       <c r="D117" t="n">
-        <v>294</v>
+        <v>292.8</v>
       </c>
       <c r="E117" t="n">
-        <v>292.8</v>
+        <v>289</v>
       </c>
       <c r="F117" t="n">
-        <v>4013.2254</v>
+        <v>1156.924</v>
       </c>
       <c r="G117" t="n">
-        <v>284.5649999999997</v>
+        <v>284.3999999999997</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5152,14 +4852,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5169,22 +4863,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>294</v>
+        <v>292.8</v>
       </c>
       <c r="C118" t="n">
-        <v>294</v>
+        <v>293.9</v>
       </c>
       <c r="D118" t="n">
         <v>294</v>
       </c>
       <c r="E118" t="n">
-        <v>294</v>
+        <v>292.8</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>4013.2254</v>
       </c>
       <c r="G118" t="n">
-        <v>284.7316666666664</v>
+        <v>284.5649999999997</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5193,14 +4887,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5222,28 +4910,22 @@
         <v>294</v>
       </c>
       <c r="F119" t="n">
-        <v>5.9141</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>284.8999999999997</v>
+        <v>284.7316666666664</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>279.8</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>1.045750536097212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -5251,28 +4933,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>293.9</v>
+        <v>294</v>
       </c>
       <c r="C120" t="n">
-        <v>294.1</v>
+        <v>294</v>
       </c>
       <c r="D120" t="n">
-        <v>294.1</v>
+        <v>294</v>
       </c>
       <c r="E120" t="n">
-        <v>293.9</v>
+        <v>294</v>
       </c>
       <c r="F120" t="n">
-        <v>838.0814</v>
+        <v>5.9141</v>
       </c>
       <c r="G120" t="n">
-        <v>285.008333333333</v>
+        <v>284.8999999999997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5286,7 +4968,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>294.1</v>
+        <v>293.9</v>
       </c>
       <c r="C121" t="n">
         <v>294.1</v>
@@ -5295,19 +4977,19 @@
         <v>294.1</v>
       </c>
       <c r="E121" t="n">
-        <v>294.1</v>
+        <v>293.9</v>
       </c>
       <c r="F121" t="n">
-        <v>1119.2495</v>
+        <v>838.0814</v>
       </c>
       <c r="G121" t="n">
-        <v>285.1316666666663</v>
+        <v>285.008333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5321,28 +5003,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>294.4</v>
+        <v>294.1</v>
       </c>
       <c r="C122" t="n">
-        <v>298.9</v>
+        <v>294.1</v>
       </c>
       <c r="D122" t="n">
-        <v>298.9</v>
+        <v>294.1</v>
       </c>
       <c r="E122" t="n">
-        <v>294.4</v>
+        <v>294.1</v>
       </c>
       <c r="F122" t="n">
-        <v>12383.6127</v>
+        <v>1119.2495</v>
       </c>
       <c r="G122" t="n">
-        <v>285.3349999999997</v>
+        <v>285.1316666666663</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5356,22 +5038,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>298.8</v>
+        <v>294.4</v>
       </c>
       <c r="C123" t="n">
-        <v>298.8</v>
+        <v>298.9</v>
       </c>
       <c r="D123" t="n">
-        <v>298.8</v>
+        <v>298.9</v>
       </c>
       <c r="E123" t="n">
-        <v>298.8</v>
+        <v>294.4</v>
       </c>
       <c r="F123" t="n">
-        <v>8.4</v>
+        <v>12383.6127</v>
       </c>
       <c r="G123" t="n">
-        <v>285.5849999999997</v>
+        <v>285.3349999999997</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5391,22 +5073,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>298.1</v>
+        <v>298.8</v>
       </c>
       <c r="C124" t="n">
-        <v>298.1</v>
+        <v>298.8</v>
       </c>
       <c r="D124" t="n">
-        <v>298.1</v>
+        <v>298.8</v>
       </c>
       <c r="E124" t="n">
-        <v>298.1</v>
+        <v>298.8</v>
       </c>
       <c r="F124" t="n">
-        <v>290.8107</v>
+        <v>8.4</v>
       </c>
       <c r="G124" t="n">
-        <v>285.7399999999997</v>
+        <v>285.5849999999997</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5426,28 +5108,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>293</v>
+        <v>298.1</v>
       </c>
       <c r="C125" t="n">
-        <v>292</v>
+        <v>298.1</v>
       </c>
       <c r="D125" t="n">
-        <v>293</v>
+        <v>298.1</v>
       </c>
       <c r="E125" t="n">
-        <v>292</v>
+        <v>298.1</v>
       </c>
       <c r="F125" t="n">
-        <v>1119.2495</v>
+        <v>290.8107</v>
       </c>
       <c r="G125" t="n">
-        <v>285.8266666666663</v>
+        <v>285.7399999999997</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5461,28 +5143,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C126" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D126" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E126" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F126" t="n">
-        <v>38</v>
+        <v>1119.2495</v>
       </c>
       <c r="G126" t="n">
-        <v>285.9616666666663</v>
+        <v>285.8266666666663</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5499,25 +5181,25 @@
         <v>296</v>
       </c>
       <c r="C127" t="n">
-        <v>298.3</v>
+        <v>296</v>
       </c>
       <c r="D127" t="n">
-        <v>298.4</v>
+        <v>296</v>
       </c>
       <c r="E127" t="n">
         <v>296</v>
       </c>
       <c r="F127" t="n">
-        <v>1392.1125</v>
+        <v>38</v>
       </c>
       <c r="G127" t="n">
-        <v>286.1266666666663</v>
+        <v>285.9616666666663</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5531,28 +5213,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>296</v>
+      </c>
+      <c r="C128" t="n">
         <v>298.3</v>
       </c>
-      <c r="C128" t="n">
-        <v>298.5</v>
-      </c>
       <c r="D128" t="n">
-        <v>298.5</v>
+        <v>298.4</v>
       </c>
       <c r="E128" t="n">
-        <v>298.3</v>
+        <v>296</v>
       </c>
       <c r="F128" t="n">
-        <v>3393.1177</v>
+        <v>1392.1125</v>
       </c>
       <c r="G128" t="n">
-        <v>286.4316666666663</v>
+        <v>286.1266666666663</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5566,28 +5248,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>298.4</v>
+        <v>298.3</v>
       </c>
       <c r="C129" t="n">
-        <v>298.8</v>
+        <v>298.5</v>
       </c>
       <c r="D129" t="n">
-        <v>298.8</v>
+        <v>298.5</v>
       </c>
       <c r="E129" t="n">
-        <v>298.4</v>
+        <v>298.3</v>
       </c>
       <c r="F129" t="n">
-        <v>9262.7961</v>
+        <v>3393.1177</v>
       </c>
       <c r="G129" t="n">
-        <v>286.7416666666662</v>
+        <v>286.4316666666663</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5601,28 +5283,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>294</v>
+        <v>298.4</v>
       </c>
       <c r="C130" t="n">
-        <v>294</v>
+        <v>298.8</v>
       </c>
       <c r="D130" t="n">
-        <v>294</v>
+        <v>298.8</v>
       </c>
       <c r="E130" t="n">
-        <v>294</v>
+        <v>298.4</v>
       </c>
       <c r="F130" t="n">
-        <v>3070.5048</v>
+        <v>9262.7961</v>
       </c>
       <c r="G130" t="n">
-        <v>286.8633333333329</v>
+        <v>286.7416666666662</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5639,25 +5321,25 @@
         <v>294</v>
       </c>
       <c r="C131" t="n">
-        <v>298.7</v>
+        <v>294</v>
       </c>
       <c r="D131" t="n">
-        <v>298.7</v>
+        <v>294</v>
       </c>
       <c r="E131" t="n">
         <v>294</v>
       </c>
       <c r="F131" t="n">
-        <v>453</v>
+        <v>3070.5048</v>
       </c>
       <c r="G131" t="n">
-        <v>287.1233333333329</v>
+        <v>286.8633333333329</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5671,28 +5353,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C132" t="n">
-        <v>292.2</v>
+        <v>298.7</v>
       </c>
       <c r="D132" t="n">
-        <v>293</v>
+        <v>298.7</v>
       </c>
       <c r="E132" t="n">
-        <v>292.2</v>
+        <v>294</v>
       </c>
       <c r="F132" t="n">
-        <v>462.7853</v>
+        <v>453</v>
       </c>
       <c r="G132" t="n">
-        <v>287.3033333333329</v>
+        <v>287.1233333333329</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5709,19 +5391,19 @@
         <v>293</v>
       </c>
       <c r="C133" t="n">
-        <v>290</v>
+        <v>292.2</v>
       </c>
       <c r="D133" t="n">
         <v>293</v>
       </c>
       <c r="E133" t="n">
-        <v>290</v>
+        <v>292.2</v>
       </c>
       <c r="F133" t="n">
-        <v>1392.1125</v>
+        <v>462.7853</v>
       </c>
       <c r="G133" t="n">
-        <v>287.4499999999996</v>
+        <v>287.3033333333329</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5741,22 +5423,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>290.9</v>
+        <v>293</v>
       </c>
       <c r="C134" t="n">
-        <v>295.7</v>
+        <v>290</v>
       </c>
       <c r="D134" t="n">
-        <v>295.7</v>
+        <v>293</v>
       </c>
       <c r="E134" t="n">
-        <v>290.9</v>
+        <v>290</v>
       </c>
       <c r="F134" t="n">
-        <v>9931.6407</v>
+        <v>1392.1125</v>
       </c>
       <c r="G134" t="n">
-        <v>287.6599999999996</v>
+        <v>287.4499999999996</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5776,22 +5458,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>291.3</v>
+        <v>290.9</v>
       </c>
       <c r="C135" t="n">
-        <v>291.3</v>
+        <v>295.7</v>
       </c>
       <c r="D135" t="n">
-        <v>291.3</v>
+        <v>295.7</v>
       </c>
       <c r="E135" t="n">
-        <v>291.3</v>
+        <v>290.9</v>
       </c>
       <c r="F135" t="n">
-        <v>3.9098</v>
+        <v>9931.6407</v>
       </c>
       <c r="G135" t="n">
-        <v>287.7966666666663</v>
+        <v>287.6599999999996</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5811,22 +5493,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>295.7</v>
+        <v>291.3</v>
       </c>
       <c r="C136" t="n">
-        <v>295.7</v>
+        <v>291.3</v>
       </c>
       <c r="D136" t="n">
-        <v>295.7</v>
+        <v>291.3</v>
       </c>
       <c r="E136" t="n">
-        <v>295.7</v>
+        <v>291.3</v>
       </c>
       <c r="F136" t="n">
-        <v>50</v>
+        <v>3.9098</v>
       </c>
       <c r="G136" t="n">
-        <v>288.0399999999997</v>
+        <v>287.7966666666663</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5846,22 +5528,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>295.8</v>
+        <v>295.7</v>
       </c>
       <c r="C137" t="n">
-        <v>298.8</v>
+        <v>295.7</v>
       </c>
       <c r="D137" t="n">
-        <v>298.8</v>
+        <v>295.7</v>
       </c>
       <c r="E137" t="n">
-        <v>295.8</v>
+        <v>295.7</v>
       </c>
       <c r="F137" t="n">
-        <v>7909.6024</v>
+        <v>50</v>
       </c>
       <c r="G137" t="n">
-        <v>288.3449999999996</v>
+        <v>288.0399999999997</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5881,22 +5563,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>298</v>
+        <v>295.8</v>
       </c>
       <c r="C138" t="n">
-        <v>294.5</v>
+        <v>298.8</v>
       </c>
       <c r="D138" t="n">
-        <v>298.7</v>
+        <v>298.8</v>
       </c>
       <c r="E138" t="n">
-        <v>294.5</v>
+        <v>295.8</v>
       </c>
       <c r="F138" t="n">
-        <v>191.7497606091</v>
+        <v>7909.6024</v>
       </c>
       <c r="G138" t="n">
-        <v>288.5366666666663</v>
+        <v>288.3449999999996</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5916,22 +5598,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C139" t="n">
-        <v>295.2</v>
+        <v>294.5</v>
       </c>
       <c r="D139" t="n">
-        <v>298</v>
+        <v>298.7</v>
       </c>
       <c r="E139" t="n">
-        <v>294.9</v>
+        <v>294.5</v>
       </c>
       <c r="F139" t="n">
-        <v>44</v>
+        <v>191.7497606091</v>
       </c>
       <c r="G139" t="n">
-        <v>288.7399999999997</v>
+        <v>288.5366666666663</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5951,22 +5633,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>296</v>
+      </c>
+      <c r="C140" t="n">
+        <v>295.2</v>
+      </c>
+      <c r="D140" t="n">
         <v>298</v>
       </c>
-      <c r="C140" t="n">
-        <v>298.8</v>
-      </c>
-      <c r="D140" t="n">
-        <v>298.8</v>
-      </c>
       <c r="E140" t="n">
-        <v>298</v>
+        <v>294.9</v>
       </c>
       <c r="F140" t="n">
-        <v>1455.564</v>
+        <v>44</v>
       </c>
       <c r="G140" t="n">
-        <v>289.043333333333</v>
+        <v>288.7399999999997</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5986,7 +5668,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>298.8</v>
+        <v>298</v>
       </c>
       <c r="C141" t="n">
         <v>298.8</v>
@@ -5995,13 +5677,13 @@
         <v>298.8</v>
       </c>
       <c r="E141" t="n">
-        <v>298.8</v>
+        <v>298</v>
       </c>
       <c r="F141" t="n">
-        <v>3.6146</v>
+        <v>1455.564</v>
       </c>
       <c r="G141" t="n">
-        <v>289.388333333333</v>
+        <v>289.043333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6021,22 +5703,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>299</v>
+        <v>298.8</v>
       </c>
       <c r="C142" t="n">
-        <v>299</v>
+        <v>298.8</v>
       </c>
       <c r="D142" t="n">
-        <v>299</v>
+        <v>298.8</v>
       </c>
       <c r="E142" t="n">
-        <v>299</v>
+        <v>298.8</v>
       </c>
       <c r="F142" t="n">
-        <v>625.4180602006001</v>
+        <v>3.6146</v>
       </c>
       <c r="G142" t="n">
-        <v>289.733333333333</v>
+        <v>289.388333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6056,22 +5738,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>298.9</v>
+        <v>299</v>
       </c>
       <c r="C143" t="n">
-        <v>298.9</v>
+        <v>299</v>
       </c>
       <c r="D143" t="n">
-        <v>298.9</v>
+        <v>299</v>
       </c>
       <c r="E143" t="n">
-        <v>298.9</v>
+        <v>299</v>
       </c>
       <c r="F143" t="n">
-        <v>613.1839</v>
+        <v>625.4180602006001</v>
       </c>
       <c r="G143" t="n">
-        <v>290.0316666666664</v>
+        <v>289.733333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6103,10 +5785,10 @@
         <v>298.9</v>
       </c>
       <c r="F144" t="n">
-        <v>890.2670000000001</v>
+        <v>613.1839</v>
       </c>
       <c r="G144" t="n">
-        <v>290.3883333333331</v>
+        <v>290.0316666666664</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6138,10 +5820,10 @@
         <v>298.9</v>
       </c>
       <c r="F145" t="n">
-        <v>109.7529</v>
+        <v>890.2670000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>290.6733333333331</v>
+        <v>290.3883333333331</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6173,10 +5855,10 @@
         <v>298.9</v>
       </c>
       <c r="F146" t="n">
-        <v>424</v>
+        <v>109.7529</v>
       </c>
       <c r="G146" t="n">
-        <v>290.9316666666664</v>
+        <v>290.6733333333331</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6208,10 +5890,10 @@
         <v>298.9</v>
       </c>
       <c r="F147" t="n">
-        <v>655.0856</v>
+        <v>424</v>
       </c>
       <c r="G147" t="n">
-        <v>291.1899999999998</v>
+        <v>290.9316666666664</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6243,10 +5925,10 @@
         <v>298.9</v>
       </c>
       <c r="F148" t="n">
-        <v>654.1962</v>
+        <v>655.0856</v>
       </c>
       <c r="G148" t="n">
-        <v>291.4883333333331</v>
+        <v>291.1899999999998</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6266,22 +5948,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>298.8</v>
+        <v>298.9</v>
       </c>
       <c r="C149" t="n">
-        <v>296.2</v>
+        <v>298.9</v>
       </c>
       <c r="D149" t="n">
-        <v>298.8</v>
+        <v>298.9</v>
       </c>
       <c r="E149" t="n">
-        <v>296.1</v>
+        <v>298.9</v>
       </c>
       <c r="F149" t="n">
-        <v>55</v>
+        <v>654.1962</v>
       </c>
       <c r="G149" t="n">
-        <v>291.6449999999998</v>
+        <v>291.4883333333331</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6301,22 +5983,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>298.8</v>
+      </c>
+      <c r="C150" t="n">
+        <v>296.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>298.8</v>
+      </c>
+      <c r="E150" t="n">
         <v>296.1</v>
       </c>
-      <c r="C150" t="n">
-        <v>295.2</v>
-      </c>
-      <c r="D150" t="n">
-        <v>296.1</v>
-      </c>
-      <c r="E150" t="n">
-        <v>295.1</v>
-      </c>
       <c r="F150" t="n">
-        <v>3153.7941</v>
+        <v>55</v>
       </c>
       <c r="G150" t="n">
-        <v>291.8833333333332</v>
+        <v>291.6449999999998</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6339,19 +6021,19 @@
         <v>296.1</v>
       </c>
       <c r="C151" t="n">
-        <v>296.1</v>
+        <v>295.2</v>
       </c>
       <c r="D151" t="n">
         <v>296.1</v>
       </c>
       <c r="E151" t="n">
-        <v>296.1</v>
+        <v>295.1</v>
       </c>
       <c r="F151" t="n">
-        <v>1630</v>
+        <v>3153.7941</v>
       </c>
       <c r="G151" t="n">
-        <v>292.0499999999998</v>
+        <v>291.8833333333332</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6371,22 +6053,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>296</v>
+        <v>296.1</v>
       </c>
       <c r="C152" t="n">
-        <v>296</v>
+        <v>296.1</v>
       </c>
       <c r="D152" t="n">
-        <v>296</v>
+        <v>296.1</v>
       </c>
       <c r="E152" t="n">
-        <v>296</v>
+        <v>296.1</v>
       </c>
       <c r="F152" t="n">
-        <v>14.2124</v>
+        <v>1630</v>
       </c>
       <c r="G152" t="n">
-        <v>292.1949999999998</v>
+        <v>292.0499999999998</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6409,19 +6091,19 @@
         <v>296</v>
       </c>
       <c r="C153" t="n">
-        <v>297.9</v>
+        <v>296</v>
       </c>
       <c r="D153" t="n">
-        <v>297.9</v>
+        <v>296</v>
       </c>
       <c r="E153" t="n">
         <v>296</v>
       </c>
       <c r="F153" t="n">
-        <v>299</v>
+        <v>14.2124</v>
       </c>
       <c r="G153" t="n">
-        <v>292.3799999999999</v>
+        <v>292.1949999999998</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6441,22 +6123,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>295.1</v>
+        <v>296</v>
       </c>
       <c r="C154" t="n">
-        <v>295.1</v>
+        <v>297.9</v>
       </c>
       <c r="D154" t="n">
-        <v>295.1</v>
+        <v>297.9</v>
       </c>
       <c r="E154" t="n">
-        <v>295.1</v>
+        <v>296</v>
       </c>
       <c r="F154" t="n">
-        <v>21</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
-        <v>292.5183333333332</v>
+        <v>292.3799999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6479,19 +6161,19 @@
         <v>295.1</v>
       </c>
       <c r="C155" t="n">
-        <v>294.2</v>
+        <v>295.1</v>
       </c>
       <c r="D155" t="n">
         <v>295.1</v>
       </c>
       <c r="E155" t="n">
-        <v>294.2</v>
+        <v>295.1</v>
       </c>
       <c r="F155" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G155" t="n">
-        <v>292.6516666666665</v>
+        <v>292.5183333333332</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6511,22 +6193,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>292.8</v>
+        <v>295.1</v>
       </c>
       <c r="C156" t="n">
-        <v>298.9</v>
+        <v>294.2</v>
       </c>
       <c r="D156" t="n">
-        <v>298.9</v>
+        <v>295.1</v>
       </c>
       <c r="E156" t="n">
-        <v>292.8</v>
+        <v>294.2</v>
       </c>
       <c r="F156" t="n">
-        <v>3506.087</v>
+        <v>22</v>
       </c>
       <c r="G156" t="n">
-        <v>292.8499999999999</v>
+        <v>292.6516666666665</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6546,22 +6228,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>294.1</v>
+        <v>292.8</v>
       </c>
       <c r="C157" t="n">
-        <v>299</v>
+        <v>298.9</v>
       </c>
       <c r="D157" t="n">
-        <v>299</v>
+        <v>298.9</v>
       </c>
       <c r="E157" t="n">
-        <v>294.1</v>
+        <v>292.8</v>
       </c>
       <c r="F157" t="n">
-        <v>1471.4399</v>
+        <v>3506.087</v>
       </c>
       <c r="G157" t="n">
-        <v>293.0666666666665</v>
+        <v>292.8499999999999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6581,7 +6263,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>299</v>
+        <v>294.1</v>
       </c>
       <c r="C158" t="n">
         <v>299</v>
@@ -6590,13 +6272,13 @@
         <v>299</v>
       </c>
       <c r="E158" t="n">
-        <v>298.9</v>
+        <v>294.1</v>
       </c>
       <c r="F158" t="n">
-        <v>4082.3066</v>
+        <v>1471.4399</v>
       </c>
       <c r="G158" t="n">
-        <v>293.2833333333332</v>
+        <v>293.0666666666665</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6619,19 +6301,19 @@
         <v>299</v>
       </c>
       <c r="C159" t="n">
-        <v>304.6</v>
+        <v>299</v>
       </c>
       <c r="D159" t="n">
-        <v>304.7</v>
+        <v>299</v>
       </c>
       <c r="E159" t="n">
-        <v>299</v>
+        <v>298.9</v>
       </c>
       <c r="F159" t="n">
-        <v>6524.4742748605</v>
+        <v>4082.3066</v>
       </c>
       <c r="G159" t="n">
-        <v>293.6749999999999</v>
+        <v>293.2833333333332</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6651,22 +6333,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>304.5</v>
+        <v>299</v>
       </c>
       <c r="C160" t="n">
-        <v>304.5</v>
+        <v>304.6</v>
       </c>
       <c r="D160" t="n">
-        <v>304.5</v>
+        <v>304.7</v>
       </c>
       <c r="E160" t="n">
-        <v>304.5</v>
+        <v>299</v>
       </c>
       <c r="F160" t="n">
-        <v>160.0197044334</v>
+        <v>6524.4742748605</v>
       </c>
       <c r="G160" t="n">
-        <v>294.0333333333332</v>
+        <v>293.6749999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6686,22 +6368,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>304.4</v>
+        <v>304.5</v>
       </c>
       <c r="C161" t="n">
-        <v>304.4</v>
+        <v>304.5</v>
       </c>
       <c r="D161" t="n">
-        <v>304.4</v>
+        <v>304.5</v>
       </c>
       <c r="E161" t="n">
-        <v>304.4</v>
+        <v>304.5</v>
       </c>
       <c r="F161" t="n">
-        <v>4607.4</v>
+        <v>160.0197044334</v>
       </c>
       <c r="G161" t="n">
-        <v>294.3899999999999</v>
+        <v>294.0333333333332</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6724,19 +6406,19 @@
         <v>304.4</v>
       </c>
       <c r="C162" t="n">
-        <v>304.8</v>
+        <v>304.4</v>
       </c>
       <c r="D162" t="n">
-        <v>304.8</v>
+        <v>304.4</v>
       </c>
       <c r="E162" t="n">
         <v>304.4</v>
       </c>
       <c r="F162" t="n">
-        <v>3419.8012</v>
+        <v>4607.4</v>
       </c>
       <c r="G162" t="n">
-        <v>294.7916666666666</v>
+        <v>294.3899999999999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6756,7 +6438,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>304.8</v>
+        <v>304.4</v>
       </c>
       <c r="C163" t="n">
         <v>304.8</v>
@@ -6765,13 +6447,13 @@
         <v>304.8</v>
       </c>
       <c r="E163" t="n">
-        <v>304.8</v>
+        <v>304.4</v>
       </c>
       <c r="F163" t="n">
-        <v>33.3835</v>
+        <v>3419.8012</v>
       </c>
       <c r="G163" t="n">
-        <v>295.1549999999999</v>
+        <v>294.7916666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6794,19 +6476,19 @@
         <v>304.8</v>
       </c>
       <c r="C164" t="n">
-        <v>306.8</v>
+        <v>304.8</v>
       </c>
       <c r="D164" t="n">
-        <v>306.8</v>
+        <v>304.8</v>
       </c>
       <c r="E164" t="n">
         <v>304.8</v>
       </c>
       <c r="F164" t="n">
-        <v>6036.5575</v>
+        <v>33.3835</v>
       </c>
       <c r="G164" t="n">
-        <v>295.5516666666665</v>
+        <v>295.1549999999999</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6826,22 +6508,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>306.9</v>
+        <v>304.8</v>
       </c>
       <c r="C165" t="n">
-        <v>306.9</v>
+        <v>306.8</v>
       </c>
       <c r="D165" t="n">
-        <v>306.9</v>
+        <v>306.8</v>
       </c>
       <c r="E165" t="n">
-        <v>306.9</v>
+        <v>304.8</v>
       </c>
       <c r="F165" t="n">
-        <v>325.0264</v>
+        <v>6036.5575</v>
       </c>
       <c r="G165" t="n">
-        <v>295.9333333333332</v>
+        <v>295.5516666666665</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6864,19 +6546,19 @@
         <v>306.9</v>
       </c>
       <c r="C166" t="n">
-        <v>304.5</v>
+        <v>306.9</v>
       </c>
       <c r="D166" t="n">
         <v>306.9</v>
       </c>
       <c r="E166" t="n">
-        <v>304.5</v>
+        <v>306.9</v>
       </c>
       <c r="F166" t="n">
-        <v>10912.0894</v>
+        <v>325.0264</v>
       </c>
       <c r="G166" t="n">
-        <v>296.2283333333332</v>
+        <v>295.9333333333332</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6896,22 +6578,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>304.5</v>
+        <v>306.9</v>
       </c>
       <c r="C167" t="n">
         <v>304.5</v>
       </c>
       <c r="D167" t="n">
-        <v>304.5</v>
+        <v>306.9</v>
       </c>
       <c r="E167" t="n">
         <v>304.5</v>
       </c>
       <c r="F167" t="n">
-        <v>42.68</v>
+        <v>10912.0894</v>
       </c>
       <c r="G167" t="n">
-        <v>296.5233333333333</v>
+        <v>296.2283333333332</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6934,25 +6616,25 @@
         <v>304.5</v>
       </c>
       <c r="C168" t="n">
-        <v>301.1</v>
+        <v>304.5</v>
       </c>
       <c r="D168" t="n">
         <v>304.5</v>
       </c>
       <c r="E168" t="n">
-        <v>301.1</v>
+        <v>304.5</v>
       </c>
       <c r="F168" t="n">
-        <v>1171.0537</v>
+        <v>42.68</v>
       </c>
       <c r="G168" t="n">
-        <v>296.7616666666665</v>
+        <v>296.5233333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -6966,22 +6648,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>302</v>
+        <v>304.5</v>
       </c>
       <c r="C169" t="n">
-        <v>306.9</v>
+        <v>301.1</v>
       </c>
       <c r="D169" t="n">
-        <v>306.9</v>
+        <v>304.5</v>
       </c>
       <c r="E169" t="n">
-        <v>302</v>
+        <v>301.1</v>
       </c>
       <c r="F169" t="n">
-        <v>506.765696219</v>
+        <v>1171.0537</v>
       </c>
       <c r="G169" t="n">
-        <v>297.1433333333333</v>
+        <v>296.7616666666665</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7001,7 +6683,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>306.9</v>
+        <v>302</v>
       </c>
       <c r="C170" t="n">
         <v>306.9</v>
@@ -7010,13 +6692,13 @@
         <v>306.9</v>
       </c>
       <c r="E170" t="n">
-        <v>301.1</v>
+        <v>302</v>
       </c>
       <c r="F170" t="n">
-        <v>658.7372753972001</v>
+        <v>506.765696219</v>
       </c>
       <c r="G170" t="n">
-        <v>297.54</v>
+        <v>297.1433333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7045,13 +6727,13 @@
         <v>306.9</v>
       </c>
       <c r="E171" t="n">
-        <v>306.9</v>
+        <v>301.1</v>
       </c>
       <c r="F171" t="n">
-        <v>33.0009775171</v>
+        <v>658.7372753972001</v>
       </c>
       <c r="G171" t="n">
-        <v>297.875</v>
+        <v>297.54</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7071,22 +6753,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>304</v>
+        <v>306.9</v>
       </c>
       <c r="C172" t="n">
-        <v>304</v>
+        <v>306.9</v>
       </c>
       <c r="D172" t="n">
-        <v>304</v>
+        <v>306.9</v>
       </c>
       <c r="E172" t="n">
-        <v>304</v>
+        <v>306.9</v>
       </c>
       <c r="F172" t="n">
-        <v>12.98</v>
+        <v>33.0009775171</v>
       </c>
       <c r="G172" t="n">
-        <v>298.05</v>
+        <v>297.875</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7106,22 +6788,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>305.9</v>
+        <v>304</v>
       </c>
       <c r="C173" t="n">
-        <v>304.5</v>
+        <v>304</v>
       </c>
       <c r="D173" t="n">
-        <v>305.9</v>
+        <v>304</v>
       </c>
       <c r="E173" t="n">
-        <v>304.5</v>
+        <v>304</v>
       </c>
       <c r="F173" t="n">
-        <v>775.0683</v>
+        <v>12.98</v>
       </c>
       <c r="G173" t="n">
-        <v>298.3083333333333</v>
+        <v>298.05</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7144,19 +6826,19 @@
         <v>305.9</v>
       </c>
       <c r="C174" t="n">
-        <v>306.9</v>
+        <v>304.5</v>
       </c>
       <c r="D174" t="n">
-        <v>306.9</v>
+        <v>305.9</v>
       </c>
       <c r="E174" t="n">
-        <v>305.9</v>
+        <v>304.5</v>
       </c>
       <c r="F174" t="n">
-        <v>371.2892864122</v>
+        <v>775.0683</v>
       </c>
       <c r="G174" t="n">
-        <v>298.6333333333333</v>
+        <v>298.3083333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7176,22 +6858,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>304.5</v>
+        <v>305.9</v>
       </c>
       <c r="C175" t="n">
-        <v>304.1</v>
+        <v>306.9</v>
       </c>
       <c r="D175" t="n">
-        <v>305</v>
+        <v>306.9</v>
       </c>
       <c r="E175" t="n">
-        <v>304.1</v>
+        <v>305.9</v>
       </c>
       <c r="F175" t="n">
-        <v>692.8998</v>
+        <v>371.2892864122</v>
       </c>
       <c r="G175" t="n">
-        <v>298.885</v>
+        <v>298.6333333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7211,22 +6893,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>304.5</v>
+      </c>
+      <c r="C176" t="n">
         <v>304.1</v>
       </c>
-      <c r="C176" t="n">
-        <v>300.7</v>
-      </c>
       <c r="D176" t="n">
-        <v>305.9</v>
+        <v>305</v>
       </c>
       <c r="E176" t="n">
-        <v>300.6</v>
+        <v>304.1</v>
       </c>
       <c r="F176" t="n">
-        <v>11486.2094</v>
+        <v>692.8998</v>
       </c>
       <c r="G176" t="n">
-        <v>299.0166666666667</v>
+        <v>298.885</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7246,22 +6928,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>305.9</v>
+        <v>304.1</v>
       </c>
       <c r="C177" t="n">
-        <v>300.9</v>
+        <v>300.7</v>
       </c>
       <c r="D177" t="n">
         <v>305.9</v>
       </c>
       <c r="E177" t="n">
-        <v>300.9</v>
+        <v>300.6</v>
       </c>
       <c r="F177" t="n">
-        <v>542.2003269042</v>
+        <v>11486.2094</v>
       </c>
       <c r="G177" t="n">
-        <v>299.1333333333333</v>
+        <v>299.0166666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7281,22 +6963,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>305.7</v>
+        <v>305.9</v>
       </c>
       <c r="C178" t="n">
-        <v>305.7</v>
+        <v>300.9</v>
       </c>
       <c r="D178" t="n">
-        <v>305.7</v>
+        <v>305.9</v>
       </c>
       <c r="E178" t="n">
-        <v>305.7</v>
+        <v>300.9</v>
       </c>
       <c r="F178" t="n">
-        <v>45.0016355904</v>
+        <v>542.2003269042</v>
       </c>
       <c r="G178" t="n">
-        <v>299.3283333333333</v>
+        <v>299.1333333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7316,22 +6998,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>301</v>
+        <v>305.7</v>
       </c>
       <c r="C179" t="n">
-        <v>303.9</v>
+        <v>305.7</v>
       </c>
       <c r="D179" t="n">
-        <v>303.9</v>
+        <v>305.7</v>
       </c>
       <c r="E179" t="n">
-        <v>301</v>
+        <v>305.7</v>
       </c>
       <c r="F179" t="n">
-        <v>5418.7460743336</v>
+        <v>45.0016355904</v>
       </c>
       <c r="G179" t="n">
-        <v>299.4933333333334</v>
+        <v>299.3283333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7351,22 +7033,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C180" t="n">
-        <v>304.3</v>
+        <v>303.9</v>
       </c>
       <c r="D180" t="n">
-        <v>304.4</v>
+        <v>303.9</v>
       </c>
       <c r="E180" t="n">
         <v>301</v>
       </c>
       <c r="F180" t="n">
-        <v>2068.5076221841</v>
+        <v>5418.7460743336</v>
       </c>
       <c r="G180" t="n">
-        <v>299.6633333333334</v>
+        <v>299.4933333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7386,22 +7068,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>306.7</v>
+        <v>304</v>
       </c>
       <c r="C181" t="n">
-        <v>306.7</v>
+        <v>304.3</v>
       </c>
       <c r="D181" t="n">
-        <v>306.7</v>
+        <v>304.4</v>
       </c>
       <c r="E181" t="n">
-        <v>306.7</v>
+        <v>301</v>
       </c>
       <c r="F181" t="n">
-        <v>99.9999999998</v>
+        <v>2068.5076221841</v>
       </c>
       <c r="G181" t="n">
-        <v>299.8733333333334</v>
+        <v>299.6633333333334</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7421,22 +7103,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>304.7</v>
+        <v>306.7</v>
       </c>
       <c r="C182" t="n">
-        <v>304.7</v>
+        <v>306.7</v>
       </c>
       <c r="D182" t="n">
-        <v>304.7</v>
+        <v>306.7</v>
       </c>
       <c r="E182" t="n">
-        <v>304.7</v>
+        <v>306.7</v>
       </c>
       <c r="F182" t="n">
-        <v>67.05</v>
+        <v>99.9999999998</v>
       </c>
       <c r="G182" t="n">
-        <v>299.9700000000001</v>
+        <v>299.8733333333334</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7456,22 +7138,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>306.7</v>
+        <v>304.7</v>
       </c>
       <c r="C183" t="n">
-        <v>306.1</v>
+        <v>304.7</v>
       </c>
       <c r="D183" t="n">
-        <v>306.7</v>
+        <v>304.7</v>
       </c>
       <c r="E183" t="n">
-        <v>306.1</v>
+        <v>304.7</v>
       </c>
       <c r="F183" t="n">
-        <v>184.0003260513</v>
+        <v>67.05</v>
       </c>
       <c r="G183" t="n">
-        <v>300.0916666666668</v>
+        <v>299.9700000000001</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7494,19 +7176,19 @@
         <v>306.7</v>
       </c>
       <c r="C184" t="n">
-        <v>306.7</v>
+        <v>306.1</v>
       </c>
       <c r="D184" t="n">
         <v>306.7</v>
       </c>
       <c r="E184" t="n">
-        <v>306.7</v>
+        <v>306.1</v>
       </c>
       <c r="F184" t="n">
-        <v>32.9996739484</v>
+        <v>184.0003260513</v>
       </c>
       <c r="G184" t="n">
-        <v>300.2350000000001</v>
+        <v>300.0916666666668</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7529,19 +7211,19 @@
         <v>306.7</v>
       </c>
       <c r="C185" t="n">
-        <v>306.8</v>
+        <v>306.7</v>
       </c>
       <c r="D185" t="n">
-        <v>306.8</v>
+        <v>306.7</v>
       </c>
       <c r="E185" t="n">
-        <v>306.1</v>
+        <v>306.7</v>
       </c>
       <c r="F185" t="n">
-        <v>7886.2664663864</v>
+        <v>32.9996739484</v>
       </c>
       <c r="G185" t="n">
-        <v>300.4816666666667</v>
+        <v>300.2350000000001</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7561,7 +7243,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>306.8</v>
+        <v>306.7</v>
       </c>
       <c r="C186" t="n">
         <v>306.8</v>
@@ -7570,13 +7252,13 @@
         <v>306.8</v>
       </c>
       <c r="E186" t="n">
-        <v>306.8</v>
+        <v>306.1</v>
       </c>
       <c r="F186" t="n">
-        <v>25</v>
+        <v>7886.2664663864</v>
       </c>
       <c r="G186" t="n">
-        <v>300.6616666666667</v>
+        <v>300.4816666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7596,22 +7278,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>306.7</v>
+        <v>306.8</v>
       </c>
       <c r="C187" t="n">
-        <v>306.7</v>
+        <v>306.8</v>
       </c>
       <c r="D187" t="n">
-        <v>306.7</v>
+        <v>306.8</v>
       </c>
       <c r="E187" t="n">
-        <v>306.7</v>
+        <v>306.8</v>
       </c>
       <c r="F187" t="n">
-        <v>32.9996739484</v>
+        <v>25</v>
       </c>
       <c r="G187" t="n">
-        <v>300.8016666666668</v>
+        <v>300.6616666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7631,22 +7313,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>304.7</v>
+        <v>306.7</v>
       </c>
       <c r="C188" t="n">
-        <v>303</v>
+        <v>306.7</v>
       </c>
       <c r="D188" t="n">
-        <v>304.7</v>
+        <v>306.7</v>
       </c>
       <c r="E188" t="n">
-        <v>303</v>
+        <v>306.7</v>
       </c>
       <c r="F188" t="n">
-        <v>1484.77</v>
+        <v>32.9996739484</v>
       </c>
       <c r="G188" t="n">
-        <v>300.8766666666668</v>
+        <v>300.8016666666668</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7666,22 +7348,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>304</v>
+        <v>304.7</v>
       </c>
       <c r="C189" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D189" t="n">
-        <v>304</v>
+        <v>304.7</v>
       </c>
       <c r="E189" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F189" t="n">
-        <v>14.29</v>
+        <v>1484.77</v>
       </c>
       <c r="G189" t="n">
-        <v>300.9633333333334</v>
+        <v>300.8766666666668</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7701,22 +7383,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C190" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D190" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E190" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F190" t="n">
-        <v>655.0856</v>
+        <v>14.29</v>
       </c>
       <c r="G190" t="n">
-        <v>301.1133333333335</v>
+        <v>300.9633333333334</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7739,19 +7421,19 @@
         <v>303</v>
       </c>
       <c r="C191" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D191" t="n">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E191" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F191" t="n">
-        <v>3197.2083</v>
+        <v>655.0856</v>
       </c>
       <c r="G191" t="n">
-        <v>301.1683333333334</v>
+        <v>301.1133333333335</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7774,19 +7456,19 @@
         <v>303</v>
       </c>
       <c r="C192" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D192" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E192" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F192" t="n">
-        <v>2096.3002</v>
+        <v>3197.2083</v>
       </c>
       <c r="G192" t="n">
-        <v>301.3483333333334</v>
+        <v>301.1683333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7806,22 +7488,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>302.7</v>
+        <v>303</v>
       </c>
       <c r="C193" t="n">
-        <v>302.7</v>
+        <v>303</v>
       </c>
       <c r="D193" t="n">
-        <v>302.7</v>
+        <v>303</v>
       </c>
       <c r="E193" t="n">
-        <v>302.7</v>
+        <v>303</v>
       </c>
       <c r="F193" t="n">
-        <v>1040.1916088536</v>
+        <v>2096.3002</v>
       </c>
       <c r="G193" t="n">
-        <v>301.5600000000001</v>
+        <v>301.3483333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7844,19 +7526,19 @@
         <v>302.7</v>
       </c>
       <c r="C194" t="n">
-        <v>301</v>
+        <v>302.7</v>
       </c>
       <c r="D194" t="n">
         <v>302.7</v>
       </c>
       <c r="E194" t="n">
-        <v>301</v>
+        <v>302.7</v>
       </c>
       <c r="F194" t="n">
-        <v>4319.9047</v>
+        <v>1040.1916088536</v>
       </c>
       <c r="G194" t="n">
-        <v>301.6483333333334</v>
+        <v>301.5600000000001</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7876,22 +7558,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>302.7</v>
+      </c>
+      <c r="C195" t="n">
         <v>301</v>
       </c>
-      <c r="C195" t="n">
-        <v>300.9</v>
-      </c>
       <c r="D195" t="n">
+        <v>302.7</v>
+      </c>
+      <c r="E195" t="n">
         <v>301</v>
       </c>
-      <c r="E195" t="n">
-        <v>300.9</v>
-      </c>
       <c r="F195" t="n">
-        <v>663.3855</v>
+        <v>4319.9047</v>
       </c>
       <c r="G195" t="n">
-        <v>301.8083333333335</v>
+        <v>301.6483333333334</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7914,19 +7596,19 @@
         <v>301</v>
       </c>
       <c r="C196" t="n">
-        <v>301</v>
+        <v>300.9</v>
       </c>
       <c r="D196" t="n">
         <v>301</v>
       </c>
       <c r="E196" t="n">
-        <v>301</v>
+        <v>300.9</v>
       </c>
       <c r="F196" t="n">
-        <v>1008.65</v>
+        <v>663.3855</v>
       </c>
       <c r="G196" t="n">
-        <v>301.8966666666668</v>
+        <v>301.8083333333335</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7946,7 +7628,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>300.9</v>
+        <v>301</v>
       </c>
       <c r="C197" t="n">
         <v>301</v>
@@ -7955,13 +7637,13 @@
         <v>301</v>
       </c>
       <c r="E197" t="n">
-        <v>300.9</v>
+        <v>301</v>
       </c>
       <c r="F197" t="n">
-        <v>1.6791</v>
+        <v>1008.65</v>
       </c>
       <c r="G197" t="n">
-        <v>301.9333333333335</v>
+        <v>301.8966666666668</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7981,22 +7663,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>303</v>
+        <v>300.9</v>
       </c>
       <c r="C198" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D198" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E198" t="n">
-        <v>303</v>
+        <v>300.9</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0007</v>
+        <v>1.6791</v>
       </c>
       <c r="G198" t="n">
-        <v>302.0750000000001</v>
+        <v>301.9333333333335</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8016,22 +7698,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>300.9</v>
+        <v>303</v>
       </c>
       <c r="C199" t="n">
-        <v>299.1</v>
+        <v>303</v>
       </c>
       <c r="D199" t="n">
-        <v>300.9</v>
+        <v>303</v>
       </c>
       <c r="E199" t="n">
-        <v>299.1</v>
+        <v>303</v>
       </c>
       <c r="F199" t="n">
-        <v>1529.5879</v>
+        <v>0.0007</v>
       </c>
       <c r="G199" t="n">
-        <v>302.1400000000001</v>
+        <v>302.0750000000001</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8051,19 +7733,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>301</v>
+        <v>300.9</v>
       </c>
       <c r="C200" t="n">
-        <v>298.8</v>
+        <v>299.1</v>
       </c>
       <c r="D200" t="n">
-        <v>301</v>
+        <v>300.9</v>
       </c>
       <c r="E200" t="n">
-        <v>298.8</v>
+        <v>299.1</v>
       </c>
       <c r="F200" t="n">
-        <v>120.95</v>
+        <v>1529.5879</v>
       </c>
       <c r="G200" t="n">
         <v>302.1400000000001</v>
@@ -8086,22 +7768,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>302.8</v>
+        <v>301</v>
       </c>
       <c r="C201" t="n">
-        <v>302.8</v>
+        <v>298.8</v>
       </c>
       <c r="D201" t="n">
-        <v>302.8</v>
+        <v>301</v>
       </c>
       <c r="E201" t="n">
-        <v>302.8</v>
+        <v>298.8</v>
       </c>
       <c r="F201" t="n">
-        <v>1462.667</v>
+        <v>120.95</v>
       </c>
       <c r="G201" t="n">
-        <v>302.2066666666668</v>
+        <v>302.1400000000001</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8124,19 +7806,19 @@
         <v>302.8</v>
       </c>
       <c r="C202" t="n">
-        <v>299.1</v>
+        <v>302.8</v>
       </c>
       <c r="D202" t="n">
         <v>302.8</v>
       </c>
       <c r="E202" t="n">
-        <v>299.1</v>
+        <v>302.8</v>
       </c>
       <c r="F202" t="n">
-        <v>500.26</v>
+        <v>1462.667</v>
       </c>
       <c r="G202" t="n">
-        <v>302.2083333333334</v>
+        <v>302.2066666666668</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8156,22 +7838,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>304</v>
+        <v>302.8</v>
       </c>
       <c r="C203" t="n">
-        <v>300</v>
+        <v>299.1</v>
       </c>
       <c r="D203" t="n">
-        <v>304.9</v>
+        <v>302.8</v>
       </c>
       <c r="E203" t="n">
-        <v>300</v>
+        <v>299.1</v>
       </c>
       <c r="F203" t="n">
-        <v>86.0053955067</v>
+        <v>500.26</v>
       </c>
       <c r="G203" t="n">
-        <v>302.2266666666667</v>
+        <v>302.2083333333334</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8191,22 +7873,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
+        <v>304</v>
+      </c>
+      <c r="C204" t="n">
         <v>300</v>
       </c>
-      <c r="C204" t="n">
-        <v>301</v>
-      </c>
       <c r="D204" t="n">
-        <v>302.9</v>
+        <v>304.9</v>
       </c>
       <c r="E204" t="n">
         <v>300</v>
       </c>
       <c r="F204" t="n">
-        <v>80.5302150805</v>
+        <v>86.0053955067</v>
       </c>
       <c r="G204" t="n">
-        <v>302.2616666666667</v>
+        <v>302.2266666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8226,22 +7908,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C205" t="n">
         <v>301</v>
       </c>
       <c r="D205" t="n">
-        <v>301</v>
+        <v>302.9</v>
       </c>
       <c r="E205" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F205" t="n">
-        <v>290.8107</v>
+        <v>80.5302150805</v>
       </c>
       <c r="G205" t="n">
-        <v>302.2966666666667</v>
+        <v>302.2616666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8261,22 +7943,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>300.2</v>
+        <v>301</v>
       </c>
       <c r="C206" t="n">
-        <v>300.1</v>
+        <v>301</v>
       </c>
       <c r="D206" t="n">
-        <v>300.2</v>
+        <v>301</v>
       </c>
       <c r="E206" t="n">
-        <v>300.1</v>
+        <v>301</v>
       </c>
       <c r="F206" t="n">
-        <v>625.4181</v>
+        <v>290.8107</v>
       </c>
       <c r="G206" t="n">
-        <v>302.3166666666666</v>
+        <v>302.2966666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8296,22 +7978,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>302.9</v>
+        <v>300.2</v>
       </c>
       <c r="C207" t="n">
-        <v>302.9</v>
+        <v>300.1</v>
       </c>
       <c r="D207" t="n">
-        <v>302.9</v>
+        <v>300.2</v>
       </c>
       <c r="E207" t="n">
-        <v>302.9</v>
+        <v>300.1</v>
       </c>
       <c r="F207" t="n">
-        <v>107.6526906569</v>
+        <v>625.4181</v>
       </c>
       <c r="G207" t="n">
-        <v>302.3833333333333</v>
+        <v>302.3166666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8343,10 +8025,10 @@
         <v>302.9</v>
       </c>
       <c r="F208" t="n">
-        <v>141.6014093431</v>
+        <v>107.6526906569</v>
       </c>
       <c r="G208" t="n">
-        <v>302.4499999999999</v>
+        <v>302.3833333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8366,22 +8048,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>303</v>
+        <v>302.9</v>
       </c>
       <c r="C209" t="n">
-        <v>303</v>
+        <v>302.9</v>
       </c>
       <c r="D209" t="n">
-        <v>303</v>
+        <v>302.9</v>
       </c>
       <c r="E209" t="n">
-        <v>303</v>
+        <v>302.9</v>
       </c>
       <c r="F209" t="n">
-        <v>33</v>
+        <v>141.6014093431</v>
       </c>
       <c r="G209" t="n">
-        <v>302.5633333333333</v>
+        <v>302.4499999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8404,19 +8086,19 @@
         <v>303</v>
       </c>
       <c r="C210" t="n">
-        <v>304.9</v>
+        <v>303</v>
       </c>
       <c r="D210" t="n">
-        <v>304.9</v>
+        <v>303</v>
       </c>
       <c r="E210" t="n">
         <v>303</v>
       </c>
       <c r="F210" t="n">
-        <v>123.0885060674</v>
+        <v>33</v>
       </c>
       <c r="G210" t="n">
-        <v>302.725</v>
+        <v>302.5633333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8436,22 +8118,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>304.8</v>
+        <v>303</v>
       </c>
       <c r="C211" t="n">
-        <v>304.8</v>
+        <v>304.9</v>
       </c>
       <c r="D211" t="n">
-        <v>304.8</v>
+        <v>304.9</v>
       </c>
       <c r="E211" t="n">
-        <v>304.8</v>
+        <v>303</v>
       </c>
       <c r="F211" t="n">
-        <v>32.0013123359</v>
+        <v>123.0885060674</v>
       </c>
       <c r="G211" t="n">
-        <v>302.8699999999999</v>
+        <v>302.725</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8471,22 +8153,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>305</v>
+        <v>304.8</v>
       </c>
       <c r="C212" t="n">
-        <v>305</v>
+        <v>304.8</v>
       </c>
       <c r="D212" t="n">
-        <v>305</v>
+        <v>304.8</v>
       </c>
       <c r="E212" t="n">
-        <v>305</v>
+        <v>304.8</v>
       </c>
       <c r="F212" t="n">
-        <v>5</v>
+        <v>32.0013123359</v>
       </c>
       <c r="G212" t="n">
-        <v>303.0199999999999</v>
+        <v>302.8699999999999</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8506,7 +8188,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>304.8</v>
+        <v>305</v>
       </c>
       <c r="C213" t="n">
         <v>305</v>
@@ -8515,13 +8197,13 @@
         <v>305</v>
       </c>
       <c r="E213" t="n">
-        <v>304.8</v>
+        <v>305</v>
       </c>
       <c r="F213" t="n">
-        <v>119.9429202622</v>
+        <v>5</v>
       </c>
       <c r="G213" t="n">
-        <v>303.1383333333333</v>
+        <v>303.0199999999999</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8541,22 +8223,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
+        <v>304.8</v>
+      </c>
+      <c r="C214" t="n">
         <v>305</v>
       </c>
-      <c r="C214" t="n">
-        <v>305.7</v>
-      </c>
       <c r="D214" t="n">
-        <v>305.7</v>
+        <v>305</v>
       </c>
       <c r="E214" t="n">
-        <v>305</v>
+        <v>304.8</v>
       </c>
       <c r="F214" t="n">
-        <v>2565.4891797378</v>
+        <v>119.9429202622</v>
       </c>
       <c r="G214" t="n">
-        <v>303.3149999999999</v>
+        <v>303.1383333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8576,22 +8258,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>305.8</v>
+        <v>305</v>
       </c>
       <c r="C215" t="n">
-        <v>301.2</v>
+        <v>305.7</v>
       </c>
       <c r="D215" t="n">
-        <v>306.6</v>
+        <v>305.7</v>
       </c>
       <c r="E215" t="n">
-        <v>301.1</v>
+        <v>305</v>
       </c>
       <c r="F215" t="n">
-        <v>4855.9538</v>
+        <v>2565.4891797378</v>
       </c>
       <c r="G215" t="n">
-        <v>303.4316666666666</v>
+        <v>303.3149999999999</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8611,22 +8293,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>305.8</v>
+      </c>
+      <c r="C216" t="n">
+        <v>301.2</v>
+      </c>
+      <c r="D216" t="n">
+        <v>306.6</v>
+      </c>
+      <c r="E216" t="n">
         <v>301.1</v>
       </c>
-      <c r="C216" t="n">
-        <v>299.9</v>
-      </c>
-      <c r="D216" t="n">
-        <v>301.1</v>
-      </c>
-      <c r="E216" t="n">
-        <v>299.9</v>
-      </c>
       <c r="F216" t="n">
-        <v>33</v>
+        <v>4855.9538</v>
       </c>
       <c r="G216" t="n">
-        <v>303.4483333333333</v>
+        <v>303.4316666666666</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8646,22 +8328,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>300</v>
+        <v>301.1</v>
       </c>
       <c r="C217" t="n">
-        <v>306.3</v>
+        <v>299.9</v>
       </c>
       <c r="D217" t="n">
-        <v>306.4</v>
+        <v>301.1</v>
       </c>
       <c r="E217" t="n">
-        <v>299.7</v>
+        <v>299.9</v>
       </c>
       <c r="F217" t="n">
-        <v>2759.7158208619</v>
+        <v>33</v>
       </c>
       <c r="G217" t="n">
-        <v>303.5699999999999</v>
+        <v>303.4483333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8681,22 +8363,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C218" t="n">
-        <v>302</v>
+        <v>306.3</v>
       </c>
       <c r="D218" t="n">
-        <v>302</v>
+        <v>306.4</v>
       </c>
       <c r="E218" t="n">
-        <v>302</v>
+        <v>299.7</v>
       </c>
       <c r="F218" t="n">
-        <v>63.8937</v>
+        <v>2759.7158208619</v>
       </c>
       <c r="G218" t="n">
-        <v>303.6199999999999</v>
+        <v>303.5699999999999</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8716,22 +8398,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>300.3</v>
+        <v>302</v>
       </c>
       <c r="C219" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D219" t="n">
-        <v>300.3</v>
+        <v>302</v>
       </c>
       <c r="E219" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F219" t="n">
-        <v>1379.8083</v>
+        <v>63.8937</v>
       </c>
       <c r="G219" t="n">
-        <v>303.5433333333333</v>
+        <v>303.6199999999999</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8751,22 +8433,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>304</v>
+        <v>300.3</v>
       </c>
       <c r="C220" t="n">
         <v>300</v>
       </c>
       <c r="D220" t="n">
-        <v>304</v>
+        <v>300.3</v>
       </c>
       <c r="E220" t="n">
         <v>300</v>
       </c>
       <c r="F220" t="n">
-        <v>1777.5666</v>
+        <v>1379.8083</v>
       </c>
       <c r="G220" t="n">
-        <v>303.4683333333333</v>
+        <v>303.5433333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8786,22 +8468,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C221" t="n">
-        <v>300.1</v>
+        <v>300</v>
       </c>
       <c r="D221" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E221" t="n">
-        <v>300.1</v>
+        <v>300</v>
       </c>
       <c r="F221" t="n">
-        <v>1452.3518</v>
+        <v>1777.5666</v>
       </c>
       <c r="G221" t="n">
-        <v>303.3966666666666</v>
+        <v>303.4683333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8821,22 +8503,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C222" t="n">
-        <v>306</v>
+        <v>300.1</v>
       </c>
       <c r="D222" t="n">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E222" t="n">
-        <v>304</v>
+        <v>300.1</v>
       </c>
       <c r="F222" t="n">
-        <v>1550.4867</v>
+        <v>1452.3518</v>
       </c>
       <c r="G222" t="n">
-        <v>303.4166666666666</v>
+        <v>303.3966666666666</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8856,7 +8538,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C223" t="n">
         <v>306</v>
@@ -8865,13 +8547,13 @@
         <v>306</v>
       </c>
       <c r="E223" t="n">
-        <v>301.2</v>
+        <v>304</v>
       </c>
       <c r="F223" t="n">
-        <v>1616.3262</v>
+        <v>1550.4867</v>
       </c>
       <c r="G223" t="n">
-        <v>303.4366666666666</v>
+        <v>303.4166666666666</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8891,7 +8573,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>305.9</v>
+        <v>306</v>
       </c>
       <c r="C224" t="n">
         <v>306</v>
@@ -8900,13 +8582,13 @@
         <v>306</v>
       </c>
       <c r="E224" t="n">
-        <v>305.9</v>
+        <v>301.2</v>
       </c>
       <c r="F224" t="n">
-        <v>255</v>
+        <v>1616.3262</v>
       </c>
       <c r="G224" t="n">
-        <v>303.4233333333333</v>
+        <v>303.4366666666666</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8926,7 +8608,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>306</v>
+        <v>305.9</v>
       </c>
       <c r="C225" t="n">
         <v>306</v>
@@ -8935,13 +8617,13 @@
         <v>306</v>
       </c>
       <c r="E225" t="n">
-        <v>306</v>
+        <v>305.9</v>
       </c>
       <c r="F225" t="n">
-        <v>430.3971</v>
+        <v>255</v>
       </c>
       <c r="G225" t="n">
-        <v>303.4083333333332</v>
+        <v>303.4233333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8964,19 +8646,19 @@
         <v>306</v>
       </c>
       <c r="C226" t="n">
-        <v>306.8</v>
+        <v>306</v>
       </c>
       <c r="D226" t="n">
-        <v>306.8</v>
+        <v>306</v>
       </c>
       <c r="E226" t="n">
         <v>306</v>
       </c>
       <c r="F226" t="n">
-        <v>5165.5496</v>
+        <v>430.3971</v>
       </c>
       <c r="G226" t="n">
-        <v>303.4466666666666</v>
+        <v>303.4083333333332</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8996,7 +8678,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>306.8</v>
+        <v>306</v>
       </c>
       <c r="C227" t="n">
         <v>306.8</v>
@@ -9005,13 +8687,13 @@
         <v>306.8</v>
       </c>
       <c r="E227" t="n">
-        <v>306.8</v>
+        <v>306</v>
       </c>
       <c r="F227" t="n">
-        <v>2523</v>
+        <v>5165.5496</v>
       </c>
       <c r="G227" t="n">
-        <v>303.4849999999999</v>
+        <v>303.4466666666666</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9043,10 +8725,10 @@
         <v>306.8</v>
       </c>
       <c r="F228" t="n">
-        <v>18.4893620599</v>
+        <v>2523</v>
       </c>
       <c r="G228" t="n">
-        <v>303.5799999999999</v>
+        <v>303.4849999999999</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9078,10 +8760,10 @@
         <v>306.8</v>
       </c>
       <c r="F229" t="n">
-        <v>1055.5957</v>
+        <v>18.4893620599</v>
       </c>
       <c r="G229" t="n">
-        <v>303.5783333333332</v>
+        <v>303.5799999999999</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9113,10 +8795,10 @@
         <v>306.8</v>
       </c>
       <c r="F230" t="n">
-        <v>4584.2927</v>
+        <v>1055.5957</v>
       </c>
       <c r="G230" t="n">
-        <v>303.5766666666665</v>
+        <v>303.5783333333332</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9136,7 +8818,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>306.7</v>
+        <v>306.8</v>
       </c>
       <c r="C231" t="n">
         <v>306.8</v>
@@ -9145,13 +8827,13 @@
         <v>306.8</v>
       </c>
       <c r="E231" t="n">
-        <v>306.7</v>
+        <v>306.8</v>
       </c>
       <c r="F231" t="n">
-        <v>3139.0403</v>
+        <v>4584.2927</v>
       </c>
       <c r="G231" t="n">
-        <v>303.5749999999998</v>
+        <v>303.5766666666665</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9171,10 +8853,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
+        <v>306.7</v>
+      </c>
+      <c r="C232" t="n">
         <v>306.8</v>
-      </c>
-      <c r="C232" t="n">
-        <v>306.7</v>
       </c>
       <c r="D232" t="n">
         <v>306.8</v>
@@ -9183,10 +8865,10 @@
         <v>306.7</v>
       </c>
       <c r="F232" t="n">
-        <v>1325.2998</v>
+        <v>3139.0403</v>
       </c>
       <c r="G232" t="n">
-        <v>303.6199999999998</v>
+        <v>303.5749999999998</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9206,22 +8888,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>306.7</v>
+        <v>306.8</v>
       </c>
       <c r="C233" t="n">
         <v>306.7</v>
       </c>
       <c r="D233" t="n">
-        <v>306.7</v>
+        <v>306.8</v>
       </c>
       <c r="E233" t="n">
         <v>306.7</v>
       </c>
       <c r="F233" t="n">
-        <v>463.6239</v>
+        <v>1325.2998</v>
       </c>
       <c r="G233" t="n">
-        <v>303.6566666666665</v>
+        <v>303.6199999999998</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9241,22 +8923,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>306.8</v>
+        <v>306.7</v>
       </c>
       <c r="C234" t="n">
-        <v>306.8</v>
+        <v>306.7</v>
       </c>
       <c r="D234" t="n">
-        <v>306.8</v>
+        <v>306.7</v>
       </c>
       <c r="E234" t="n">
-        <v>306.8</v>
+        <v>306.7</v>
       </c>
       <c r="F234" t="n">
-        <v>2817.0950379401</v>
+        <v>463.6239</v>
       </c>
       <c r="G234" t="n">
-        <v>303.6549999999998</v>
+        <v>303.6566666666665</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9276,22 +8958,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>306.9</v>
+        <v>306.8</v>
       </c>
       <c r="C235" t="n">
-        <v>306.9</v>
+        <v>306.8</v>
       </c>
       <c r="D235" t="n">
-        <v>306.9</v>
+        <v>306.8</v>
       </c>
       <c r="E235" t="n">
-        <v>306.9</v>
+        <v>306.8</v>
       </c>
       <c r="F235" t="n">
-        <v>679.5303</v>
+        <v>2817.0950379401</v>
       </c>
       <c r="G235" t="n">
-        <v>303.7016666666665</v>
+        <v>303.6549999999998</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9323,10 +9005,10 @@
         <v>306.9</v>
       </c>
       <c r="F236" t="n">
-        <v>32.5839035516</v>
+        <v>679.5303</v>
       </c>
       <c r="G236" t="n">
-        <v>303.8049999999999</v>
+        <v>303.7016666666665</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9349,19 +9031,19 @@
         <v>306.9</v>
       </c>
       <c r="C237" t="n">
-        <v>308.4</v>
+        <v>306.9</v>
       </c>
       <c r="D237" t="n">
-        <v>308.4</v>
+        <v>306.9</v>
       </c>
       <c r="E237" t="n">
         <v>306.9</v>
       </c>
       <c r="F237" t="n">
-        <v>4458.8699</v>
+        <v>32.5839035516</v>
       </c>
       <c r="G237" t="n">
-        <v>303.9299999999999</v>
+        <v>303.8049999999999</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9381,22 +9063,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
+        <v>306.9</v>
+      </c>
+      <c r="C238" t="n">
         <v>308.4</v>
       </c>
-      <c r="C238" t="n">
-        <v>308.5</v>
-      </c>
       <c r="D238" t="n">
-        <v>308.5</v>
+        <v>308.4</v>
       </c>
       <c r="E238" t="n">
-        <v>308.4</v>
+        <v>306.9</v>
       </c>
       <c r="F238" t="n">
-        <v>306.1902</v>
+        <v>4458.8699</v>
       </c>
       <c r="G238" t="n">
-        <v>303.9766666666665</v>
+        <v>303.9299999999999</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9416,22 +9098,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
+        <v>308.4</v>
+      </c>
+      <c r="C239" t="n">
         <v>308.5</v>
       </c>
-      <c r="C239" t="n">
-        <v>308.8</v>
-      </c>
       <c r="D239" t="n">
-        <v>308.8</v>
+        <v>308.5</v>
       </c>
       <c r="E239" t="n">
-        <v>308.5</v>
+        <v>308.4</v>
       </c>
       <c r="F239" t="n">
-        <v>2686.806</v>
+        <v>306.1902</v>
       </c>
       <c r="G239" t="n">
-        <v>304.0583333333332</v>
+        <v>303.9766666666665</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9451,22 +9133,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>307</v>
+        <v>308.5</v>
       </c>
       <c r="C240" t="n">
-        <v>307</v>
+        <v>308.8</v>
       </c>
       <c r="D240" t="n">
-        <v>307</v>
+        <v>308.8</v>
       </c>
       <c r="E240" t="n">
-        <v>307</v>
+        <v>308.5</v>
       </c>
       <c r="F240" t="n">
-        <v>15.2696</v>
+        <v>2686.806</v>
       </c>
       <c r="G240" t="n">
-        <v>304.1033333333332</v>
+        <v>304.0583333333332</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9486,7 +9168,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C241" t="n">
         <v>307</v>
@@ -9495,13 +9177,13 @@
         <v>307</v>
       </c>
       <c r="E241" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F241" t="n">
-        <v>32.4918</v>
+        <v>15.2696</v>
       </c>
       <c r="G241" t="n">
-        <v>304.1083333333332</v>
+        <v>304.1033333333332</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9521,22 +9203,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>305.3</v>
+        <v>306</v>
       </c>
       <c r="C242" t="n">
-        <v>305.3</v>
+        <v>307</v>
       </c>
       <c r="D242" t="n">
-        <v>305.3</v>
+        <v>307</v>
       </c>
       <c r="E242" t="n">
-        <v>305.3</v>
+        <v>306</v>
       </c>
       <c r="F242" t="n">
-        <v>1316.3608</v>
+        <v>32.4918</v>
       </c>
       <c r="G242" t="n">
-        <v>304.1183333333331</v>
+        <v>304.1083333333332</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9568,10 +9250,10 @@
         <v>305.3</v>
       </c>
       <c r="F243" t="n">
-        <v>1055.5957</v>
+        <v>1316.3608</v>
       </c>
       <c r="G243" t="n">
-        <v>304.1049999999998</v>
+        <v>304.1183333333331</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9591,22 +9273,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>304.1</v>
+        <v>305.3</v>
       </c>
       <c r="C244" t="n">
-        <v>306.5</v>
+        <v>305.3</v>
       </c>
       <c r="D244" t="n">
-        <v>306.5</v>
+        <v>305.3</v>
       </c>
       <c r="E244" t="n">
-        <v>304</v>
+        <v>305.3</v>
       </c>
       <c r="F244" t="n">
-        <v>2379.1375</v>
+        <v>1055.5957</v>
       </c>
       <c r="G244" t="n">
-        <v>304.1016666666665</v>
+        <v>304.1049999999998</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9626,22 +9308,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>306</v>
+        <v>304.1</v>
       </c>
       <c r="C245" t="n">
-        <v>306</v>
+        <v>306.5</v>
       </c>
       <c r="D245" t="n">
-        <v>306</v>
+        <v>306.5</v>
       </c>
       <c r="E245" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F245" t="n">
-        <v>15.3346</v>
+        <v>2379.1375</v>
       </c>
       <c r="G245" t="n">
-        <v>304.0883333333331</v>
+        <v>304.1016666666665</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9673,10 +9355,10 @@
         <v>306</v>
       </c>
       <c r="F246" t="n">
-        <v>92.14060000000001</v>
+        <v>15.3346</v>
       </c>
       <c r="G246" t="n">
-        <v>304.0749999999998</v>
+        <v>304.0883333333331</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9708,10 +9390,10 @@
         <v>306</v>
       </c>
       <c r="F247" t="n">
-        <v>54.5415</v>
+        <v>92.14060000000001</v>
       </c>
       <c r="G247" t="n">
-        <v>304.0633333333332</v>
+        <v>304.0749999999998</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9734,19 +9416,19 @@
         <v>306</v>
       </c>
       <c r="C248" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D248" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E248" t="n">
         <v>306</v>
       </c>
       <c r="F248" t="n">
-        <v>2017</v>
+        <v>54.5415</v>
       </c>
       <c r="G248" t="n">
-        <v>304.1299999999998</v>
+        <v>304.0633333333332</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9766,22 +9448,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>304.1</v>
+        <v>306</v>
       </c>
       <c r="C249" t="n">
-        <v>304.1</v>
+        <v>307</v>
       </c>
       <c r="D249" t="n">
-        <v>304.1</v>
+        <v>307</v>
       </c>
       <c r="E249" t="n">
-        <v>304.1</v>
+        <v>306</v>
       </c>
       <c r="F249" t="n">
-        <v>189.246</v>
+        <v>2017</v>
       </c>
       <c r="G249" t="n">
-        <v>304.1316666666664</v>
+        <v>304.1299999999998</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9801,22 +9483,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>306.5</v>
+        <v>304.1</v>
       </c>
       <c r="C250" t="n">
-        <v>307</v>
+        <v>304.1</v>
       </c>
       <c r="D250" t="n">
-        <v>307</v>
+        <v>304.1</v>
       </c>
       <c r="E250" t="n">
-        <v>306.5</v>
+        <v>304.1</v>
       </c>
       <c r="F250" t="n">
-        <v>3481.0443</v>
+        <v>189.246</v>
       </c>
       <c r="G250" t="n">
-        <v>304.1983333333331</v>
+        <v>304.1316666666664</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9836,7 +9518,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>307</v>
+        <v>306.5</v>
       </c>
       <c r="C251" t="n">
         <v>307</v>
@@ -9845,13 +9527,13 @@
         <v>307</v>
       </c>
       <c r="E251" t="n">
-        <v>307</v>
+        <v>306.5</v>
       </c>
       <c r="F251" t="n">
-        <v>1036.8098</v>
+        <v>3481.0443</v>
       </c>
       <c r="G251" t="n">
-        <v>304.2816666666665</v>
+        <v>304.1983333333331</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9883,10 +9565,10 @@
         <v>307</v>
       </c>
       <c r="F252" t="n">
-        <v>168.0504</v>
+        <v>1036.8098</v>
       </c>
       <c r="G252" t="n">
-        <v>304.3483333333331</v>
+        <v>304.2816666666665</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9918,10 +9600,10 @@
         <v>307</v>
       </c>
       <c r="F253" t="n">
-        <v>214.6851</v>
+        <v>168.0504</v>
       </c>
       <c r="G253" t="n">
-        <v>304.4199999999998</v>
+        <v>304.3483333333331</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9953,10 +9635,10 @@
         <v>307</v>
       </c>
       <c r="F254" t="n">
-        <v>723.01</v>
+        <v>214.6851</v>
       </c>
       <c r="G254" t="n">
-        <v>304.5199999999998</v>
+        <v>304.4199999999998</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9979,19 +9661,19 @@
         <v>307</v>
       </c>
       <c r="C255" t="n">
-        <v>308.6</v>
+        <v>307</v>
       </c>
       <c r="D255" t="n">
-        <v>308.6</v>
+        <v>307</v>
       </c>
       <c r="E255" t="n">
         <v>307</v>
       </c>
       <c r="F255" t="n">
-        <v>2391</v>
+        <v>723.01</v>
       </c>
       <c r="G255" t="n">
-        <v>304.648333333333</v>
+        <v>304.5199999999998</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -10011,22 +9693,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>308.5</v>
+        <v>307</v>
       </c>
       <c r="C256" t="n">
-        <v>308.8</v>
+        <v>308.6</v>
       </c>
       <c r="D256" t="n">
-        <v>308.8</v>
+        <v>308.6</v>
       </c>
       <c r="E256" t="n">
-        <v>308.5</v>
+        <v>307</v>
       </c>
       <c r="F256" t="n">
-        <v>13259.0866</v>
+        <v>2391</v>
       </c>
       <c r="G256" t="n">
-        <v>304.778333333333</v>
+        <v>304.648333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -10046,22 +9728,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
+        <v>308.5</v>
+      </c>
+      <c r="C257" t="n">
         <v>308.8</v>
       </c>
-      <c r="C257" t="n">
-        <v>309.5</v>
-      </c>
       <c r="D257" t="n">
-        <v>309.5</v>
+        <v>308.8</v>
       </c>
       <c r="E257" t="n">
-        <v>308.8</v>
+        <v>308.5</v>
       </c>
       <c r="F257" t="n">
-        <v>307.1686</v>
+        <v>13259.0866</v>
       </c>
       <c r="G257" t="n">
-        <v>304.9199999999997</v>
+        <v>304.778333333333</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -10081,22 +9763,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
+        <v>308.8</v>
+      </c>
+      <c r="C258" t="n">
         <v>309.5</v>
       </c>
-      <c r="C258" t="n">
-        <v>310</v>
-      </c>
       <c r="D258" t="n">
-        <v>310</v>
+        <v>309.5</v>
       </c>
       <c r="E258" t="n">
-        <v>309.5</v>
+        <v>308.8</v>
       </c>
       <c r="F258" t="n">
-        <v>4213.2272</v>
+        <v>307.1686</v>
       </c>
       <c r="G258" t="n">
-        <v>305.0366666666663</v>
+        <v>304.9199999999997</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10116,22 +9798,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>311</v>
+        <v>309.5</v>
       </c>
       <c r="C259" t="n">
-        <v>312.8</v>
+        <v>310</v>
       </c>
       <c r="D259" t="n">
-        <v>312.8</v>
+        <v>310</v>
       </c>
       <c r="E259" t="n">
-        <v>311</v>
+        <v>309.5</v>
       </c>
       <c r="F259" t="n">
-        <v>4413.7719</v>
+        <v>4213.2272</v>
       </c>
       <c r="G259" t="n">
-        <v>305.2649999999997</v>
+        <v>305.0366666666663</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10151,22 +9833,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C260" t="n">
-        <v>319.8</v>
+        <v>312.8</v>
       </c>
       <c r="D260" t="n">
-        <v>319.9</v>
+        <v>312.8</v>
       </c>
       <c r="E260" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F260" t="n">
-        <v>8050.773</v>
+        <v>4413.7719</v>
       </c>
       <c r="G260" t="n">
-        <v>305.6149999999997</v>
+        <v>305.2649999999997</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10186,22 +9868,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>319.9</v>
+        <v>313</v>
       </c>
       <c r="C261" t="n">
-        <v>319.9</v>
+        <v>319.8</v>
       </c>
       <c r="D261" t="n">
         <v>319.9</v>
       </c>
       <c r="E261" t="n">
-        <v>319.9</v>
+        <v>313</v>
       </c>
       <c r="F261" t="n">
-        <v>5589.8323</v>
+        <v>8050.773</v>
       </c>
       <c r="G261" t="n">
-        <v>305.8999999999997</v>
+        <v>305.6149999999997</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10221,22 +9903,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>319.8</v>
+        <v>319.9</v>
       </c>
       <c r="C262" t="n">
-        <v>316.8</v>
+        <v>319.9</v>
       </c>
       <c r="D262" t="n">
         <v>319.9</v>
       </c>
       <c r="E262" t="n">
-        <v>316.8</v>
+        <v>319.9</v>
       </c>
       <c r="F262" t="n">
-        <v>900.6949</v>
+        <v>5589.8323</v>
       </c>
       <c r="G262" t="n">
-        <v>306.1949999999998</v>
+        <v>305.8999999999997</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10256,28 +9938,28 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>318.8</v>
+        <v>319.8</v>
       </c>
       <c r="C263" t="n">
-        <v>319</v>
+        <v>316.8</v>
       </c>
       <c r="D263" t="n">
-        <v>319</v>
+        <v>319.9</v>
       </c>
       <c r="E263" t="n">
-        <v>318.8</v>
+        <v>316.8</v>
       </c>
       <c r="F263" t="n">
-        <v>7605.1715</v>
+        <v>900.6949</v>
       </c>
       <c r="G263" t="n">
-        <v>306.5116666666664</v>
+        <v>306.1949999999998</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
@@ -10291,28 +9973,28 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>318.9</v>
+        <v>318.8</v>
       </c>
       <c r="C264" t="n">
-        <v>318.9</v>
+        <v>319</v>
       </c>
       <c r="D264" t="n">
-        <v>318.9</v>
+        <v>319</v>
       </c>
       <c r="E264" t="n">
-        <v>318.9</v>
+        <v>318.8</v>
       </c>
       <c r="F264" t="n">
-        <v>3623.0562801191</v>
+        <v>7605.1715</v>
       </c>
       <c r="G264" t="n">
-        <v>306.8099999999998</v>
+        <v>306.5116666666664</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
       </c>
       <c r="I264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
@@ -10326,28 +10008,28 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>316</v>
+        <v>318.9</v>
       </c>
       <c r="C265" t="n">
-        <v>314.9</v>
+        <v>318.9</v>
       </c>
       <c r="D265" t="n">
-        <v>316</v>
+        <v>318.9</v>
       </c>
       <c r="E265" t="n">
-        <v>314.9</v>
+        <v>318.9</v>
       </c>
       <c r="F265" t="n">
-        <v>1295.0712</v>
+        <v>3623.0562801191</v>
       </c>
       <c r="G265" t="n">
-        <v>307.0416666666665</v>
+        <v>306.8099999999998</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
       </c>
       <c r="I265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
@@ -10361,22 +10043,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>314.7</v>
+        <v>316</v>
       </c>
       <c r="C266" t="n">
-        <v>313.6</v>
+        <v>314.9</v>
       </c>
       <c r="D266" t="n">
-        <v>314.7</v>
+        <v>316</v>
       </c>
       <c r="E266" t="n">
-        <v>313.6</v>
+        <v>314.9</v>
       </c>
       <c r="F266" t="n">
-        <v>3573.8241</v>
+        <v>1295.0712</v>
       </c>
       <c r="G266" t="n">
-        <v>307.2666666666665</v>
+        <v>307.0416666666665</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10396,22 +10078,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>315</v>
+        <v>314.7</v>
       </c>
       <c r="C267" t="n">
-        <v>315</v>
+        <v>313.6</v>
       </c>
       <c r="D267" t="n">
-        <v>315</v>
+        <v>314.7</v>
       </c>
       <c r="E267" t="n">
-        <v>315</v>
+        <v>313.6</v>
       </c>
       <c r="F267" t="n">
-        <v>13.98</v>
+        <v>3573.8241</v>
       </c>
       <c r="G267" t="n">
-        <v>307.4683333333331</v>
+        <v>307.2666666666665</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10431,22 +10113,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>313.6</v>
+        <v>315</v>
       </c>
       <c r="C268" t="n">
-        <v>310.9</v>
+        <v>315</v>
       </c>
       <c r="D268" t="n">
-        <v>313.6</v>
+        <v>315</v>
       </c>
       <c r="E268" t="n">
-        <v>310.9</v>
+        <v>315</v>
       </c>
       <c r="F268" t="n">
-        <v>5627.9221</v>
+        <v>13.98</v>
       </c>
       <c r="G268" t="n">
-        <v>307.6016666666665</v>
+        <v>307.4683333333331</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10466,22 +10148,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
+        <v>313.6</v>
+      </c>
+      <c r="C269" t="n">
         <v>310.9</v>
       </c>
-      <c r="C269" t="n">
-        <v>310.7</v>
-      </c>
       <c r="D269" t="n">
+        <v>313.6</v>
+      </c>
+      <c r="E269" t="n">
         <v>310.9</v>
       </c>
-      <c r="E269" t="n">
-        <v>310.7</v>
-      </c>
       <c r="F269" t="n">
-        <v>369.5459</v>
+        <v>5627.9221</v>
       </c>
       <c r="G269" t="n">
-        <v>307.7299999999998</v>
+        <v>307.6016666666665</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10501,22 +10183,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>312</v>
+        <v>310.9</v>
       </c>
       <c r="C270" t="n">
-        <v>307.4</v>
+        <v>310.7</v>
       </c>
       <c r="D270" t="n">
-        <v>312</v>
+        <v>310.9</v>
       </c>
       <c r="E270" t="n">
-        <v>307.4</v>
+        <v>310.7</v>
       </c>
       <c r="F270" t="n">
-        <v>9705.4213</v>
+        <v>369.5459</v>
       </c>
       <c r="G270" t="n">
-        <v>307.7716666666665</v>
+        <v>307.7299999999998</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10536,22 +10218,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>308.1</v>
+        <v>312</v>
       </c>
       <c r="C271" t="n">
-        <v>312.5</v>
+        <v>307.4</v>
       </c>
       <c r="D271" t="n">
-        <v>312.5</v>
+        <v>312</v>
       </c>
       <c r="E271" t="n">
-        <v>308.1</v>
+        <v>307.4</v>
       </c>
       <c r="F271" t="n">
-        <v>5284.9434</v>
+        <v>9705.4213</v>
       </c>
       <c r="G271" t="n">
-        <v>307.8999999999998</v>
+        <v>307.7716666666665</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10571,22 +10253,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
+        <v>308.1</v>
+      </c>
+      <c r="C272" t="n">
         <v>312.5</v>
-      </c>
-      <c r="C272" t="n">
-        <v>310.2</v>
       </c>
       <c r="D272" t="n">
         <v>312.5</v>
       </c>
       <c r="E272" t="n">
-        <v>310.2</v>
+        <v>308.1</v>
       </c>
       <c r="F272" t="n">
-        <v>231.7462</v>
+        <v>5284.9434</v>
       </c>
       <c r="G272" t="n">
-        <v>307.9866666666665</v>
+        <v>307.8999999999998</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10606,22 +10288,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="C273" t="n">
         <v>310.2</v>
-      </c>
-      <c r="C273" t="n">
-        <v>312.5</v>
       </c>
       <c r="D273" t="n">
         <v>312.5</v>
       </c>
       <c r="E273" t="n">
-        <v>309</v>
+        <v>310.2</v>
       </c>
       <c r="F273" t="n">
-        <v>10239.4929</v>
+        <v>231.7462</v>
       </c>
       <c r="G273" t="n">
-        <v>308.1116666666665</v>
+        <v>307.9866666666665</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10641,22 +10323,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>310</v>
+        <v>310.2</v>
       </c>
       <c r="C274" t="n">
-        <v>306</v>
+        <v>312.5</v>
       </c>
       <c r="D274" t="n">
-        <v>310</v>
+        <v>312.5</v>
       </c>
       <c r="E274" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F274" t="n">
-        <v>2264.4513</v>
+        <v>10239.4929</v>
       </c>
       <c r="G274" t="n">
-        <v>308.1166666666665</v>
+        <v>308.1116666666665</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10676,22 +10358,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
+        <v>310</v>
+      </c>
+      <c r="C275" t="n">
         <v>306</v>
       </c>
-      <c r="C275" t="n">
-        <v>302.8</v>
-      </c>
       <c r="D275" t="n">
+        <v>310</v>
+      </c>
+      <c r="E275" t="n">
         <v>306</v>
       </c>
-      <c r="E275" t="n">
-        <v>302.8</v>
-      </c>
       <c r="F275" t="n">
-        <v>343.3205</v>
+        <v>2264.4513</v>
       </c>
       <c r="G275" t="n">
-        <v>308.1433333333331</v>
+        <v>308.1166666666665</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10706,6 +10388,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>306</v>
+      </c>
+      <c r="C276" t="n">
+        <v>302.8</v>
+      </c>
+      <c r="D276" t="n">
+        <v>306</v>
+      </c>
+      <c r="E276" t="n">
+        <v>302.8</v>
+      </c>
+      <c r="F276" t="n">
+        <v>343.3205</v>
+      </c>
+      <c r="G276" t="n">
+        <v>308.1433333333331</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-15 BackTest INS.xlsx
+++ b/BackTest/2020-01-15 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N344"/>
+  <dimension ref="A1:M344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>56606.31509628602</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>54916.31399628602</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>283.5</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>54918.12379628602</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>280.9</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,22 +562,21 @@
         <v>55589.98389628602</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>283.9</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,20 +603,17 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,22 +638,21 @@
         <v>55589.97399628602</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -698,20 +679,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,20 +716,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -778,20 +753,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -818,20 +790,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,20 +827,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -898,20 +864,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -938,20 +901,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -978,20 +938,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1018,20 +975,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1058,20 +1012,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1098,20 +1049,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1138,20 +1086,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1178,20 +1123,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1218,20 +1160,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1258,20 +1197,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1298,20 +1234,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1336,22 +1269,21 @@
         <v>116385.208596286</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>285.1</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1378,20 +1310,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1418,20 +1347,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1458,20 +1384,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1498,20 +1421,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1538,20 +1458,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1576,22 +1493,21 @@
         <v>111248.106996286</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>287.8</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1618,20 +1534,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1658,20 +1571,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1698,20 +1608,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1738,20 +1645,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1778,20 +1682,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1818,20 +1719,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1858,20 +1756,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1898,20 +1793,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1938,20 +1830,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1978,20 +1867,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2018,20 +1904,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2058,20 +1941,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2098,20 +1978,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2136,22 +2013,21 @@
         <v>90598.91319628604</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>283.7</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2176,22 +2052,21 @@
         <v>90800.91319628604</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2216,22 +2091,21 @@
         <v>90803.01319628605</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>282.1</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2256,22 +2130,21 @@
         <v>88509.79829628604</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>285.1</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2298,20 +2171,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2338,20 +2208,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2378,20 +2245,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2418,20 +2282,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2458,20 +2319,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2498,20 +2356,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2538,20 +2393,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2578,20 +2430,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2618,20 +2467,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2658,20 +2504,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2698,20 +2541,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2738,20 +2578,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2778,20 +2615,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2818,20 +2652,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2858,20 +2689,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2898,20 +2726,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2938,20 +2763,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2978,20 +2800,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3018,20 +2837,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3058,20 +2874,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3098,20 +2911,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3138,20 +2948,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3178,20 +2985,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3218,20 +3022,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3258,20 +3059,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3298,20 +3096,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3338,20 +3133,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3378,20 +3170,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3418,20 +3207,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3458,20 +3244,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3498,20 +3281,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3538,20 +3318,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3578,20 +3355,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3618,20 +3392,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3658,20 +3429,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3698,20 +3466,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3738,20 +3503,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3778,20 +3540,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3818,20 +3577,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3858,20 +3614,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3898,20 +3651,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3938,20 +3688,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3978,20 +3725,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4018,20 +3762,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4058,20 +3799,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4098,20 +3836,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4138,20 +3873,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4178,20 +3910,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4218,20 +3947,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4258,20 +3984,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4298,20 +4021,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4338,20 +4058,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4378,20 +4095,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4418,20 +4132,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4458,20 +4169,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4498,20 +4206,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4538,20 +4243,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4578,20 +4280,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4618,20 +4317,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4658,20 +4354,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4698,20 +4391,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4738,20 +4428,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4778,20 +4465,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4818,20 +4502,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4858,20 +4539,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4896,22 +4574,21 @@
         <v>90256.04307119915</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4936,22 +4613,21 @@
         <v>92007.54787119915</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4976,22 +4652,21 @@
         <v>92007.54787119915</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>286.9</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5016,22 +4691,21 @@
         <v>89500.66587119915</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>286.9</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5056,22 +4730,21 @@
         <v>89500.66587119915</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5096,22 +4769,21 @@
         <v>87862.00667119915</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5136,22 +4808,21 @@
         <v>98675.67837119916</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>283.9</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5176,22 +4847,21 @@
         <v>97443.28437119916</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>287.6</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5216,22 +4886,21 @@
         <v>97443.28437119916</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>286.7</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5258,20 +4927,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5298,20 +4964,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5338,20 +5001,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5378,20 +5038,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5418,20 +5075,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5458,20 +5112,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5498,20 +5149,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5538,20 +5186,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5578,20 +5223,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5618,20 +5260,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5656,22 +5295,21 @@
         <v>53785.55497119915</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>281.4</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5698,20 +5336,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5738,20 +5373,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5778,20 +5410,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5816,22 +5445,21 @@
         <v>50729.16727119916</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>281.1</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5856,22 +5484,21 @@
         <v>50839.99727119916</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>280.5</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5896,22 +5523,21 @@
         <v>50839.99727119916</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5936,22 +5562,21 @@
         <v>50507.07547119916</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5976,22 +5601,21 @@
         <v>48884.61987119916</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>280.6</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6016,22 +5640,21 @@
         <v>48898.27537119916</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>278.1</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6056,22 +5679,21 @@
         <v>48926.27537119916</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>278.3</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6096,22 +5718,21 @@
         <v>39066.72577119916</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6136,22 +5757,21 @@
         <v>39112.72577119916</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>277.5</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6176,22 +5796,21 @@
         <v>41540.78847119916</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>281.8</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6216,22 +5835,21 @@
         <v>41540.78847119916</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>283.4</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6256,22 +5874,21 @@
         <v>41538.97027119916</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>283.4</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6298,20 +5915,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6338,20 +5952,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6378,20 +5989,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6418,20 +6026,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6458,20 +6063,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6498,20 +6100,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6538,20 +6137,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6578,20 +6174,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6618,20 +6211,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6658,20 +6248,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6698,20 +6285,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6738,20 +6322,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6776,22 +6357,21 @@
         <v>35537.68767119917</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6816,22 +6396,21 @@
         <v>35437.47767119917</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6856,22 +6435,21 @@
         <v>35548.47767119917</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>280.7</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6896,22 +6474,21 @@
         <v>35548.47767119917</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6936,22 +6513,21 @@
         <v>38181.19937119917</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6976,22 +6552,21 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7016,22 +6591,21 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>286.8</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7056,22 +6630,21 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>286.8</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7096,22 +6669,21 @@
         <v>38886.85777119917</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>286.8</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7136,22 +6708,21 @@
         <v>38868.98417119918</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7176,22 +6747,21 @@
         <v>39047.65757119918</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>283.1</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7216,22 +6786,21 @@
         <v>39898.65757119918</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>286.8</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7256,22 +6825,21 @@
         <v>38422.16697119918</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>293.5</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7296,22 +6864,21 @@
         <v>37265.24297119918</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7338,20 +6905,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7378,20 +6942,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7416,22 +6977,21 @@
         <v>42445.62420510918</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>292.8</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7458,20 +7018,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7498,20 +7055,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7538,20 +7092,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7578,20 +7129,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7618,20 +7166,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7658,20 +7203,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7698,20 +7240,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7738,20 +7277,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7778,20 +7314,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7816,22 +7349,21 @@
         <v>55688.97060510919</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7858,20 +7390,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7898,20 +7427,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7938,20 +7464,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7978,20 +7501,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8018,20 +7538,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8058,20 +7575,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8098,20 +7612,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8138,20 +7649,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8178,20 +7686,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8218,20 +7723,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8258,20 +7760,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8298,20 +7797,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8338,20 +7834,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8378,20 +7871,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8418,20 +7908,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8458,20 +7945,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8498,20 +7982,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8538,20 +8019,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8576,22 +8054,19 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8618,20 +8093,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8658,20 +8130,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8698,20 +8167,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8738,20 +8204,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8778,20 +8241,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8818,20 +8278,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8858,20 +8315,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8898,20 +8352,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8938,20 +8389,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8978,20 +8426,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9018,20 +8463,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9058,20 +8500,17 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9098,20 +8537,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9138,20 +8574,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9178,20 +8611,17 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9216,22 +8646,17 @@
         <v>91897.23967512778</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9256,22 +8681,15 @@
         <v>91897.23967512778</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9296,22 +8714,15 @@
         <v>97933.79717512778</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9336,22 +8747,15 @@
         <v>98258.82357512778</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9378,20 +8782,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9418,18 +8815,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L226" t="n">
+        <v>1</v>
       </c>
       <c r="M226" t="inlineStr"/>
-      <c r="N226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9454,18 +8846,15 @@
         <v>86175.68047512778</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9492,16 +8881,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9526,18 +8912,15 @@
         <v>86682.44617134678</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9564,16 +8947,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9600,16 +8980,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9636,16 +9013,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9672,16 +9046,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9706,18 +9077,15 @@
         <v>87122.92395775898</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9744,16 +9112,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9780,16 +9145,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9816,16 +9178,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9852,16 +9211,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9888,16 +9244,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9924,16 +9277,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9960,16 +9310,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9996,16 +9343,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10032,16 +9376,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10066,18 +9407,15 @@
         <v>81009.89453448997</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10102,18 +9440,15 @@
         <v>81009.89453448997</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10138,18 +9473,15 @@
         <v>80976.89486054156</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10174,18 +9506,15 @@
         <v>79492.12486054156</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10212,16 +9541,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10248,16 +9574,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10284,16 +9607,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10320,16 +9640,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10356,16 +9673,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10392,16 +9706,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10428,16 +9739,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10464,16 +9772,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10500,16 +9805,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10536,16 +9838,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10572,16 +9871,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10608,16 +9904,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10644,16 +9937,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10680,16 +9970,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10716,16 +10003,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10752,16 +10036,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10788,16 +10069,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10824,16 +10102,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10860,16 +10135,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10896,16 +10168,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10932,16 +10201,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10968,16 +10234,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -11004,16 +10267,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -11040,16 +10300,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11076,16 +10333,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11112,16 +10366,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11148,16 +10399,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11184,16 +10432,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11220,16 +10465,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11256,16 +10498,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11292,16 +10531,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11328,16 +10564,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11364,16 +10597,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11400,16 +10630,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11436,16 +10663,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11472,16 +10696,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11508,16 +10729,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11544,16 +10762,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11580,16 +10795,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11616,16 +10828,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11652,16 +10861,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11686,18 +10892,15 @@
         <v>78986.25384726324</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11722,18 +10925,15 @@
         <v>78986.25384726324</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11760,16 +10960,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11796,16 +10993,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11832,16 +11026,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11868,16 +11059,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11904,16 +11092,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11940,16 +11125,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11976,16 +11158,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -12012,16 +11191,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -12048,16 +11224,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -12084,16 +11257,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -12120,16 +11290,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12156,16 +11323,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12192,16 +11356,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12228,16 +11389,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12264,16 +11422,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12300,16 +11455,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12336,16 +11488,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12372,16 +11521,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12408,16 +11554,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12444,16 +11587,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12480,16 +11620,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12516,16 +11653,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12552,16 +11686,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12588,16 +11719,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12622,18 +11750,15 @@
         <v>110600.5028852033</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12658,18 +11783,15 @@
         <v>110907.6714852033</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12694,18 +11816,15 @@
         <v>115120.8986852033</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12730,18 +11849,15 @@
         <v>119534.6705852033</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12766,18 +11882,15 @@
         <v>127585.4435852033</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12802,18 +11915,15 @@
         <v>133175.2758852033</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12838,18 +11948,15 @@
         <v>132274.5809852033</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12874,18 +11981,15 @@
         <v>139879.7524852033</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12910,18 +12014,15 @@
         <v>136256.6962050842</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12946,18 +12047,15 @@
         <v>134961.6250050842</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12982,18 +12080,15 @@
         <v>131387.8009050842</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -13020,16 +12115,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>1</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -13056,16 +12148,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>1</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -13092,16 +12181,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>1</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -13128,16 +12214,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>1</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -13164,16 +12247,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>1</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -13200,16 +12280,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>1</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -13236,16 +12313,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>1</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -13272,16 +12346,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>1</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -13308,16 +12379,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>1</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -13344,16 +12412,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -13380,16 +12445,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -13414,18 +12476,15 @@
         <v>126356.4128050842</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -13450,18 +12509,15 @@
         <v>126370.4128050842</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -13486,18 +12542,15 @@
         <v>125788.2691050842</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13522,18 +12575,15 @@
         <v>121203.9764050842</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13558,18 +12608,15 @@
         <v>121936.2950050842</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13594,18 +12641,15 @@
         <v>121936.2950050842</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13630,18 +12674,15 @@
         <v>121936.2950050842</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13666,20 +12707,17 @@
         <v>121936.2950050842</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest INS.xlsx
+++ b/BackTest/2020-01-15 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>56606.31509628602</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>54916.31399628602</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>283.5</v>
@@ -523,7 +523,7 @@
         <v>54918.12379628602</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>280.9</v>
@@ -562,7 +562,7 @@
         <v>55589.98389628602</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>283.9</v>
@@ -601,9 +601,11 @@
         <v>55588.18399628602</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>284.8</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -638,7 +640,7 @@
         <v>55589.97399628602</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>282</v>
@@ -677,9 +679,11 @@
         <v>55564.97399628602</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>285</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -714,9 +718,11 @@
         <v>55688.31499628602</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>284</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -751,9 +757,11 @@
         <v>55690.32479628602</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>285</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -788,9 +796,11 @@
         <v>54485.76329628602</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>287</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -825,9 +835,11 @@
         <v>60394.77819628602</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>286.9</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -862,9 +874,11 @@
         <v>85743.40299628602</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>289.6</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -899,9 +913,11 @@
         <v>91583.55739628602</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>290</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -936,9 +952,11 @@
         <v>93756.75219628602</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>293</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -973,9 +991,11 @@
         <v>95463.94339628602</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>293.3</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1010,9 +1030,11 @@
         <v>96940.43409628602</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>294.8</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1047,9 +1069,11 @@
         <v>96942.53409628602</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>294.9</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1084,9 +1108,11 @@
         <v>96903.59439628602</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>295</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1121,9 +1147,11 @@
         <v>96672.94219628602</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>294.9</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1158,9 +1186,11 @@
         <v>126014.197796286</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>290</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1269,11 +1299,9 @@
         <v>116385.208596286</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>285.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1493,11 +1521,9 @@
         <v>111248.106996286</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>287.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -2013,11 +2039,9 @@
         <v>90598.91319628604</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>283.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2052,11 +2076,9 @@
         <v>90800.91319628604</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2091,11 +2113,9 @@
         <v>90803.01319628605</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>282.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2130,11 +2150,9 @@
         <v>88509.79829628604</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>285.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -4574,11 +4592,9 @@
         <v>90256.04307119915</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4613,11 +4629,9 @@
         <v>92007.54787119915</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4652,11 +4666,9 @@
         <v>92007.54787119915</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>286.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4691,11 +4703,9 @@
         <v>89500.66587119915</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>286.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4730,11 +4740,9 @@
         <v>89500.66587119915</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4769,11 +4777,9 @@
         <v>87862.00667119915</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4808,11 +4814,9 @@
         <v>98675.67837119916</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>283.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4847,11 +4851,9 @@
         <v>97443.28437119916</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>287.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4886,11 +4888,9 @@
         <v>97443.28437119916</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>286.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -5295,11 +5295,9 @@
         <v>53785.55497119915</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>281.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5445,11 +5443,9 @@
         <v>50729.16727119916</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>281.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5484,11 +5480,9 @@
         <v>50839.99727119916</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>280.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5523,11 +5517,9 @@
         <v>50839.99727119916</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5562,11 +5554,9 @@
         <v>50507.07547119916</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5601,11 +5591,9 @@
         <v>48884.61987119916</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>280.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5640,11 +5628,9 @@
         <v>48898.27537119916</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>278.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5679,11 +5665,9 @@
         <v>48926.27537119916</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5718,11 +5702,9 @@
         <v>39066.72577119916</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5757,11 +5739,9 @@
         <v>39112.72577119916</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>277.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5796,11 +5776,9 @@
         <v>41540.78847119916</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>281.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5835,11 +5813,9 @@
         <v>41540.78847119916</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>283.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5874,11 +5850,9 @@
         <v>41538.97027119916</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>283.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -6357,11 +6331,9 @@
         <v>35537.68767119917</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6396,11 +6368,9 @@
         <v>35437.47767119917</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6435,11 +6405,9 @@
         <v>35548.47767119917</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>280.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6474,7 +6442,7 @@
         <v>35548.47767119917</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>283</v>
@@ -6513,11 +6481,9 @@
         <v>38181.19937119917</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6552,11 +6518,9 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6591,11 +6555,9 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>286.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6630,11 +6592,9 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>286.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6669,11 +6629,9 @@
         <v>38886.85777119917</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>286.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6708,11 +6666,9 @@
         <v>38868.98417119918</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6747,11 +6703,9 @@
         <v>39047.65757119918</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>283.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6786,11 +6740,9 @@
         <v>39898.65757119918</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>286.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6825,11 +6777,9 @@
         <v>38422.16697119918</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>293.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6864,11 +6814,9 @@
         <v>37265.24297119918</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6903,9 +6851,11 @@
         <v>37275.47480510918</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>287.4</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6977,11 +6927,9 @@
         <v>42445.62420510918</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>292.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -7275,9 +7223,11 @@
         <v>54258.85810510918</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>298.1</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -7312,9 +7262,11 @@
         <v>54296.85810510918</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>292</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -7349,7 +7301,7 @@
         <v>55688.97060510919</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>296</v>
@@ -7388,9 +7340,11 @@
         <v>59082.08830510919</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>298.3</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7425,9 +7379,11 @@
         <v>68344.88440510919</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>298.5</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7462,9 +7418,11 @@
         <v>65274.37960510918</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>298.8</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7499,9 +7457,11 @@
         <v>65727.37960510919</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>294</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7536,9 +7496,11 @@
         <v>65264.59430510919</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>298.7</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7573,9 +7535,11 @@
         <v>63872.48180510919</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>292.2</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7610,9 +7574,11 @@
         <v>73804.12250510919</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>290</v>
+      </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7647,9 +7613,11 @@
         <v>73800.2127051092</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>295.7</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7684,9 +7652,11 @@
         <v>73850.2127051092</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>291.3</v>
+      </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7721,9 +7691,11 @@
         <v>81759.8151051092</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>295.7</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7758,9 +7730,11 @@
         <v>81568.06534450009</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>298.8</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -8054,7 +8028,7 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8646,16 +8620,18 @@
         <v>91897.23967512778</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L221" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
       <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
@@ -8681,11 +8657,15 @@
         <v>91897.23967512778</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8714,11 +8694,15 @@
         <v>97933.79717512778</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8747,11 +8731,15 @@
         <v>98258.82357512778</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8784,7 +8772,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8817,7 +8809,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8846,11 +8842,15 @@
         <v>86175.68047512778</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8883,7 +8883,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8912,11 +8916,15 @@
         <v>86682.44617134678</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8949,7 +8957,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8982,7 +8994,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9015,7 +9031,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9048,7 +9068,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9077,11 +9101,15 @@
         <v>87122.92395775898</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9114,7 +9142,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9147,7 +9179,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9180,7 +9216,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9213,7 +9253,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9246,7 +9290,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9279,7 +9327,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9312,7 +9364,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9345,7 +9401,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9378,7 +9438,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9407,11 +9471,15 @@
         <v>81009.89453448997</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9440,11 +9508,15 @@
         <v>81009.89453448997</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9473,11 +9545,15 @@
         <v>80976.89486054156</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9506,11 +9582,15 @@
         <v>79492.12486054156</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9543,7 +9623,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9576,7 +9660,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9609,7 +9697,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9642,7 +9734,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9675,7 +9771,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9708,7 +9808,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9741,7 +9845,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9774,7 +9882,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9807,7 +9919,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9840,7 +9956,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9873,7 +9993,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9906,7 +10030,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9939,7 +10067,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9972,7 +10104,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10005,7 +10141,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10038,7 +10178,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10071,7 +10215,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10104,7 +10252,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10137,7 +10289,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10170,7 +10326,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10203,7 +10363,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10236,7 +10400,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10269,7 +10437,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10302,7 +10474,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10335,7 +10511,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10368,7 +10548,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10401,7 +10585,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10434,7 +10622,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10467,7 +10659,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10500,7 +10696,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10533,7 +10733,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10566,7 +10770,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10599,7 +10807,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10632,7 +10844,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10665,7 +10881,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10698,7 +10918,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10731,7 +10955,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10764,7 +10992,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10797,7 +11029,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10830,7 +11066,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10863,7 +11103,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10892,11 +11136,15 @@
         <v>78986.25384726324</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10925,11 +11173,15 @@
         <v>78986.25384726324</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10962,7 +11214,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10995,7 +11251,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11028,7 +11288,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11061,7 +11325,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11094,7 +11362,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11127,7 +11399,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11160,7 +11436,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11193,7 +11473,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11226,7 +11510,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11259,7 +11547,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11292,7 +11584,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11325,7 +11621,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11358,7 +11658,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11391,7 +11695,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11424,7 +11732,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11457,7 +11769,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11486,14 +11802,16 @@
         <v>91658.61798520335</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
@@ -11519,7 +11837,7 @@
         <v>91469.37198520335</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11552,7 +11870,7 @@
         <v>94950.41628520335</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11585,7 +11903,7 @@
         <v>94950.41628520335</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11618,7 +11936,7 @@
         <v>94950.41628520335</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11750,7 +12068,7 @@
         <v>110600.5028852033</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11783,7 +12101,7 @@
         <v>110907.6714852033</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11816,7 +12134,7 @@
         <v>115120.8986852033</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11849,7 +12167,7 @@
         <v>119534.6705852033</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11882,7 +12200,7 @@
         <v>127585.4435852033</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11915,7 +12233,7 @@
         <v>133175.2758852033</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11948,7 +12266,7 @@
         <v>132274.5809852033</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11981,7 +12299,7 @@
         <v>139879.7524852033</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12014,7 +12332,7 @@
         <v>136256.6962050842</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12047,7 +12365,7 @@
         <v>134961.6250050842</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12080,7 +12398,7 @@
         <v>131387.8009050842</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12113,7 +12431,7 @@
         <v>131401.7809050842</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12146,7 +12464,7 @@
         <v>125773.8588050842</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12179,7 +12497,7 @@
         <v>125404.3129050842</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12212,7 +12530,7 @@
         <v>115698.8916050842</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12245,7 +12563,7 @@
         <v>120983.8350050842</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12278,7 +12596,7 @@
         <v>120752.0888050842</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12311,7 +12629,7 @@
         <v>130991.5817050842</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12344,7 +12662,7 @@
         <v>128727.1304050842</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12377,7 +12695,7 @@
         <v>128383.8099050842</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12410,7 +12728,7 @@
         <v>127691.9340050842</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12443,7 +12761,7 @@
         <v>126356.4128050842</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12476,7 +12794,7 @@
         <v>126356.4128050842</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12509,7 +12827,7 @@
         <v>126370.4128050842</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12542,7 +12860,7 @@
         <v>125788.2691050842</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12575,7 +12893,7 @@
         <v>121203.9764050842</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12608,7 +12926,7 @@
         <v>121936.2950050842</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12641,7 +12959,7 @@
         <v>121936.2950050842</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12674,7 +12992,7 @@
         <v>121936.2950050842</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12707,7 +13025,7 @@
         <v>121936.2950050842</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12718,6 +13036,6 @@
       <c r="M344" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest INS.xlsx
+++ b/BackTest/2020-01-15 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -835,11 +835,9 @@
         <v>60394.77819628602</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>286.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -874,11 +872,9 @@
         <v>85743.40299628602</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>289.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -913,11 +909,9 @@
         <v>91583.55739628602</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -952,11 +946,9 @@
         <v>93756.75219628602</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -991,20 +983,16 @@
         <v>95463.94339628602</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>293.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1030,17 +1018,11 @@
         <v>96940.43409628602</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>294.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +1051,11 @@
         <v>96942.53409628602</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>294.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1108,17 +1084,11 @@
         <v>96903.59439628602</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>295</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1147,17 +1117,11 @@
         <v>96672.94219628602</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>294.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,17 +1150,11 @@
         <v>126014.197796286</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>290</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1225,15 +1183,11 @@
         <v>124119.638696286</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1262,15 +1216,11 @@
         <v>116383.309596286</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1303,11 +1253,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1340,11 +1286,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1377,11 +1319,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1414,11 +1352,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1451,11 +1385,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1488,11 +1418,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1525,11 +1451,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1562,11 +1484,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1599,11 +1517,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1636,11 +1550,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1673,11 +1583,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1710,11 +1616,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1747,11 +1649,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1784,11 +1682,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1821,11 +1715,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1858,11 +1748,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1895,11 +1781,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1932,11 +1814,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +1847,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2006,11 +1880,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2043,11 +1913,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2080,11 +1946,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2117,11 +1979,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2154,11 +2012,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2191,11 +2045,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2228,11 +2078,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2265,11 +2111,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2302,11 +2144,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2339,11 +2177,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2376,11 +2210,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2413,11 +2243,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2450,11 +2276,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2487,11 +2309,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2524,11 +2342,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2561,11 +2375,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2598,11 +2408,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2635,11 +2441,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2672,11 +2474,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2709,11 +2507,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2746,11 +2540,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2783,11 +2573,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2820,11 +2606,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2857,11 +2639,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2894,11 +2672,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2931,11 +2705,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2968,11 +2738,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3005,11 +2771,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3042,11 +2804,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3079,11 +2837,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3116,11 +2870,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3153,11 +2903,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +2936,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3227,11 +2969,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3264,11 +3002,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3301,11 +3035,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3338,11 +3068,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3375,11 +3101,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3412,11 +3134,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3449,11 +3167,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3486,11 +3200,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3523,11 +3233,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3560,11 +3266,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3597,11 +3299,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3634,11 +3332,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3671,11 +3365,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3708,11 +3398,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3745,11 +3431,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3782,11 +3464,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3819,11 +3497,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3856,11 +3530,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3893,11 +3563,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3930,11 +3596,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3967,11 +3629,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4004,11 +3662,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4041,11 +3695,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4078,11 +3728,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4115,11 +3761,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4152,11 +3794,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4189,11 +3827,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4226,11 +3860,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4263,11 +3893,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4300,11 +3926,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4337,11 +3959,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4374,11 +3992,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4025,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4448,11 +4058,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4485,11 +4091,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4522,11 +4124,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4559,11 +4157,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4596,11 +4190,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4633,11 +4223,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4670,11 +4256,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4707,11 +4289,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4744,11 +4322,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4781,11 +4355,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4818,11 +4388,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4855,11 +4421,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4892,11 +4454,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4929,11 +4487,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4966,11 +4520,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5003,11 +4553,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5040,11 +4586,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5077,11 +4619,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5114,11 +4652,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5151,11 +4685,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5188,11 +4718,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5225,11 +4751,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5262,11 +4784,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5299,11 +4817,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5336,11 +4850,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5373,11 +4883,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5410,11 +4916,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5447,11 +4949,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5484,11 +4982,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5521,11 +5015,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5558,11 +5048,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5595,11 +5081,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5114,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5665,15 +5143,15 @@
         <v>48926.27537119916</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="J142" t="n">
+        <v>278.3</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5702,13 +5180,17 @@
         <v>39066.72577119916</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>281</v>
+      </c>
+      <c r="J143" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L143" t="n">
@@ -5739,10 +5221,14 @@
         <v>39112.72577119916</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="J144" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5776,10 +5262,14 @@
         <v>41540.78847119916</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>281.8</v>
+      </c>
+      <c r="J145" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5813,10 +5303,14 @@
         <v>41540.78847119916</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>283.4</v>
+      </c>
+      <c r="J146" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5850,10 +5344,14 @@
         <v>41538.97027119916</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>283.4</v>
+      </c>
+      <c r="J147" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5887,10 +5385,14 @@
         <v>41700.97027119916</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>281</v>
+      </c>
+      <c r="J148" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5927,7 +5429,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5964,7 +5468,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6001,7 +5507,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6038,7 +5546,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6075,7 +5585,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6112,7 +5624,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6149,7 +5663,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6186,7 +5702,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6223,7 +5741,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6260,7 +5780,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6297,7 +5819,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6331,10 +5855,14 @@
         <v>35537.68767119917</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>283</v>
+      </c>
+      <c r="J160" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6368,10 +5896,14 @@
         <v>35437.47767119917</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>283</v>
+      </c>
+      <c r="J161" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6405,10 +5937,14 @@
         <v>35548.47767119917</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>280.7</v>
+      </c>
+      <c r="J162" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6447,7 +5983,9 @@
       <c r="I163" t="n">
         <v>283</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6481,10 +6019,14 @@
         <v>38181.19937119917</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>283</v>
+      </c>
+      <c r="J164" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6518,10 +6060,14 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>284</v>
+      </c>
+      <c r="J165" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6555,10 +6101,14 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="J166" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6592,10 +6142,14 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="J167" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6629,10 +6183,14 @@
         <v>38886.85777119917</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="J168" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6666,10 +6224,14 @@
         <v>38868.98417119918</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>284</v>
+      </c>
+      <c r="J169" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6703,10 +6265,14 @@
         <v>39047.65757119918</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>283.1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6740,10 +6306,14 @@
         <v>39898.65757119918</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="J171" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6777,10 +6347,14 @@
         <v>38422.16697119918</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>293.5</v>
+      </c>
+      <c r="J172" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6817,7 +6391,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6856,7 +6432,9 @@
       <c r="I174" t="n">
         <v>287.4</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6890,10 +6468,14 @@
         <v>38432.39880510918</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>289</v>
+      </c>
+      <c r="J175" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6927,10 +6509,14 @@
         <v>42445.62420510918</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>292.8</v>
+      </c>
+      <c r="J176" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6967,7 +6553,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7001,10 +6589,14 @@
         <v>42455.62420510918</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>294</v>
+      </c>
+      <c r="J178" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7041,7 +6633,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7078,7 +6672,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7115,7 +6711,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7152,7 +6750,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7189,7 +6789,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7223,19 +6825,19 @@
         <v>54258.85810510918</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>298.1</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>278.3</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1</v>
+        <v>1.044227452389508</v>
       </c>
       <c r="M184" t="inlineStr"/>
     </row>
@@ -7262,17 +6864,11 @@
         <v>54296.85810510918</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>292</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7301,17 +6897,11 @@
         <v>55688.97060510919</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>296</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7340,17 +6930,11 @@
         <v>59082.08830510919</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>298.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7379,17 +6963,11 @@
         <v>68344.88440510919</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>298.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7418,17 +6996,11 @@
         <v>65274.37960510918</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>298.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7457,17 +7029,11 @@
         <v>65727.37960510919</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>294</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7496,17 +7062,11 @@
         <v>65264.59430510919</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>298.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7535,17 +7095,11 @@
         <v>63872.48180510919</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>292.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7574,17 +7128,11 @@
         <v>73804.12250510919</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7613,17 +7161,11 @@
         <v>73800.2127051092</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>295.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7652,17 +7194,11 @@
         <v>73850.2127051092</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>291.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7691,17 +7227,11 @@
         <v>81759.8151051092</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>295.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7730,17 +7260,11 @@
         <v>81568.06534450009</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>298.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7773,11 +7297,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7330,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7843,15 +7359,11 @@
         <v>83067.62934450009</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7880,15 +7392,11 @@
         <v>83693.04740470069</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7917,15 +7425,11 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7954,15 +7458,11 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7991,15 +7491,11 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8028,15 +7524,11 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8065,15 +7557,11 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8102,15 +7590,11 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8139,15 +7623,11 @@
         <v>83024.86350470068</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8176,15 +7656,11 @@
         <v>79871.06940470068</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8213,15 +7689,11 @@
         <v>81501.06940470068</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8250,15 +7722,11 @@
         <v>81486.85700470068</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8287,15 +7755,11 @@
         <v>81785.85700470068</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8324,15 +7788,11 @@
         <v>81764.85700470068</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8361,15 +7821,11 @@
         <v>81742.85700470068</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8402,11 +7858,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8435,15 +7887,11 @@
         <v>86720.38390470068</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8476,11 +7924,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8513,11 +7957,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8550,11 +7990,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8587,11 +8023,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8624,11 +8056,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8661,11 +8089,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8698,11 +8122,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8735,11 +8155,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8772,11 +8188,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8809,11 +8221,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8846,11 +8254,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8883,11 +8287,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8920,11 +8320,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8957,11 +8353,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8994,11 +8386,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +8419,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9068,11 +8452,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9105,11 +8485,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9142,11 +8518,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9179,11 +8551,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9216,11 +8584,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9253,11 +8617,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9290,11 +8650,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9327,11 +8683,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9364,11 +8716,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9401,11 +8749,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9438,11 +8782,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9475,11 +8815,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9512,11 +8848,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9549,11 +8881,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9586,11 +8914,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9623,11 +8947,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9660,11 +8980,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9697,11 +9013,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9734,11 +9046,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9771,11 +9079,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9808,11 +9112,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9845,11 +9145,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9882,11 +9178,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9919,11 +9211,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9956,11 +9244,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9993,11 +9277,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10030,11 +9310,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10067,11 +9343,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10104,11 +9376,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10141,11 +9409,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10178,11 +9442,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10215,11 +9475,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +9508,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10289,11 +9541,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10326,11 +9574,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10363,11 +9607,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10400,11 +9640,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10437,11 +9673,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10474,11 +9706,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10511,11 +9739,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10548,11 +9772,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10585,11 +9805,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10622,11 +9838,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10659,11 +9871,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10696,11 +9904,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10733,11 +9937,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10770,11 +9970,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10807,11 +10003,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10844,11 +10036,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10881,11 +10069,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10918,11 +10102,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10955,11 +10135,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10992,11 +10168,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11029,11 +10201,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11066,11 +10234,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11103,11 +10267,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11140,11 +10300,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11177,11 +10333,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11214,11 +10366,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11251,11 +10399,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11288,11 +10432,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11325,11 +10465,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11362,11 +10498,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11399,11 +10531,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11436,11 +10564,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +10597,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11510,11 +10630,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11547,11 +10663,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11584,11 +10696,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11621,11 +10729,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11658,11 +10762,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11695,11 +10795,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11732,11 +10828,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11769,11 +10861,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11802,16 +10890,14 @@
         <v>91658.61798520335</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
       <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
@@ -11837,7 +10923,7 @@
         <v>91469.37198520335</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11870,7 +10956,7 @@
         <v>94950.41628520335</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11903,7 +10989,7 @@
         <v>94950.41628520335</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11936,7 +11022,7 @@
         <v>94950.41628520335</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12101,7 +11187,7 @@
         <v>110907.6714852033</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12134,7 +11220,7 @@
         <v>115120.8986852033</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12167,7 +11253,7 @@
         <v>119534.6705852033</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12200,7 +11286,7 @@
         <v>127585.4435852033</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12233,7 +11319,7 @@
         <v>133175.2758852033</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12266,7 +11352,7 @@
         <v>132274.5809852033</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12299,7 +11385,7 @@
         <v>139879.7524852033</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12332,7 +11418,7 @@
         <v>136256.6962050842</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12365,7 +11451,7 @@
         <v>134961.6250050842</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12398,7 +11484,7 @@
         <v>131387.8009050842</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12431,7 +11517,7 @@
         <v>131401.7809050842</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12464,7 +11550,7 @@
         <v>125773.8588050842</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12497,7 +11583,7 @@
         <v>125404.3129050842</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12530,7 +11616,7 @@
         <v>115698.8916050842</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12563,7 +11649,7 @@
         <v>120983.8350050842</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12596,7 +11682,7 @@
         <v>120752.0888050842</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12629,7 +11715,7 @@
         <v>130991.5817050842</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12662,7 +11748,7 @@
         <v>128727.1304050842</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12695,7 +11781,7 @@
         <v>128383.8099050842</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12728,7 +11814,7 @@
         <v>127691.9340050842</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12761,7 +11847,7 @@
         <v>126356.4128050842</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12794,7 +11880,7 @@
         <v>126356.4128050842</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12827,7 +11913,7 @@
         <v>126370.4128050842</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12860,7 +11946,7 @@
         <v>125788.2691050842</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12893,7 +11979,7 @@
         <v>121203.9764050842</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12926,7 +12012,7 @@
         <v>121936.2950050842</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12959,7 +12045,7 @@
         <v>121936.2950050842</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12992,7 +12078,7 @@
         <v>121936.2950050842</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13025,7 +12111,7 @@
         <v>121936.2950050842</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13036,6 +12122,6 @@
       <c r="M344" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest INS.xlsx
+++ b/BackTest/2020-01-15 BackTest INS.xlsx
@@ -679,11 +679,9 @@
         <v>55564.97399628602</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -757,11 +755,9 @@
         <v>55690.32479628602</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -835,9 +831,11 @@
         <v>60394.77819628602</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>286.9</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -872,9 +870,11 @@
         <v>85743.40299628602</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>289.6</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -983,16 +983,18 @@
         <v>95463.94339628602</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1018,11 +1020,15 @@
         <v>96940.43409628602</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1051,11 +1057,15 @@
         <v>96942.53409628602</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1084,11 +1094,15 @@
         <v>96903.59439628602</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1117,11 +1131,15 @@
         <v>96672.94219628602</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1150,11 +1168,15 @@
         <v>126014.197796286</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1183,11 +1205,15 @@
         <v>124119.638696286</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1216,11 +1242,15 @@
         <v>116383.309596286</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1253,7 +1283,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1286,7 +1320,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1319,7 +1357,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1352,7 +1394,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1385,7 +1431,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1418,7 +1468,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1451,7 +1505,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1484,7 +1542,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1517,7 +1579,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1550,7 +1616,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1583,7 +1653,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1616,7 +1690,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1649,7 +1727,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1682,7 +1764,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1715,7 +1801,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1748,7 +1838,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1781,7 +1875,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1814,7 +1912,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1847,7 +1949,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1880,7 +1986,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1913,7 +2023,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1946,7 +2060,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1979,7 +2097,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2012,7 +2134,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2045,7 +2171,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2078,7 +2208,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2111,7 +2245,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2144,7 +2282,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2177,7 +2319,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2210,7 +2356,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2243,7 +2393,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2276,7 +2430,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2309,7 +2467,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2342,7 +2504,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2375,7 +2541,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2408,7 +2578,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2441,7 +2615,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2474,7 +2652,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2507,7 +2689,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2540,7 +2726,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2573,7 +2763,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2606,7 +2800,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2639,7 +2837,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2672,7 +2874,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2705,7 +2911,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2738,7 +2948,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2771,7 +2985,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2804,7 +3022,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2837,7 +3059,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2870,7 +3096,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2903,7 +3133,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2936,7 +3170,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2969,7 +3207,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3002,7 +3244,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3035,7 +3281,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3068,7 +3318,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3101,7 +3355,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3134,7 +3392,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3167,7 +3429,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3200,7 +3466,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3233,7 +3503,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3266,7 +3540,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3299,7 +3577,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3332,7 +3614,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3365,7 +3651,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3398,7 +3688,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3431,7 +3725,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3464,7 +3762,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3497,7 +3799,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3530,7 +3836,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3563,7 +3873,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3596,7 +3910,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3629,7 +3947,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3662,7 +3984,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3695,7 +4021,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3728,7 +4058,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3761,7 +4095,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3794,7 +4132,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3827,7 +4169,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3860,7 +4206,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3893,7 +4243,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3926,7 +4280,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3959,7 +4317,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3992,7 +4354,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4025,7 +4391,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4058,7 +4428,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4091,7 +4465,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4124,7 +4502,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4157,7 +4539,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4190,7 +4576,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4223,7 +4613,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4256,7 +4650,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4289,7 +4687,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4322,7 +4724,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4355,7 +4761,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4388,7 +4798,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4421,7 +4835,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4454,7 +4872,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4487,7 +4909,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4520,7 +4946,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4553,7 +4983,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4586,7 +5020,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4619,7 +5057,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4652,7 +5094,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4685,7 +5131,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4718,7 +5168,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4751,7 +5205,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4784,7 +5242,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4817,7 +5279,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4850,7 +5316,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4883,7 +5353,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4916,7 +5390,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4949,7 +5427,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4982,7 +5464,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5015,7 +5501,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5048,7 +5538,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5081,7 +5575,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5114,7 +5612,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5143,15 +5645,15 @@
         <v>48926.27537119916</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="J142" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5180,17 +5682,13 @@
         <v>39066.72577119916</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>281</v>
-      </c>
-      <c r="J143" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L143" t="n">
@@ -5221,14 +5719,10 @@
         <v>39112.72577119916</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>277.5</v>
-      </c>
-      <c r="J144" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5262,14 +5756,10 @@
         <v>41540.78847119916</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>281.8</v>
-      </c>
-      <c r="J145" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5303,14 +5793,10 @@
         <v>41540.78847119916</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>283.4</v>
-      </c>
-      <c r="J146" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5344,14 +5830,10 @@
         <v>41538.97027119916</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>283.4</v>
-      </c>
-      <c r="J147" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5385,14 +5867,10 @@
         <v>41700.97027119916</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>281</v>
-      </c>
-      <c r="J148" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5429,9 +5907,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5468,9 +5944,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5507,9 +5981,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5546,9 +6018,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5585,9 +6055,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5624,9 +6092,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5663,9 +6129,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5702,9 +6166,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5741,9 +6203,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5780,9 +6240,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5819,9 +6277,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5855,14 +6311,10 @@
         <v>35537.68767119917</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>283</v>
-      </c>
-      <c r="J160" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5896,14 +6348,10 @@
         <v>35437.47767119917</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>283</v>
-      </c>
-      <c r="J161" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5937,14 +6385,10 @@
         <v>35548.47767119917</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="J162" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5978,14 +6422,10 @@
         <v>35548.47767119917</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>283</v>
-      </c>
-      <c r="J163" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6019,14 +6459,10 @@
         <v>38181.19937119917</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>283</v>
-      </c>
-      <c r="J164" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6060,14 +6496,10 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>284</v>
-      </c>
-      <c r="J165" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6101,14 +6533,10 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="J166" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6142,14 +6570,10 @@
         <v>38892.24077119918</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="J167" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6183,14 +6607,10 @@
         <v>38886.85777119917</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="J168" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6224,14 +6644,10 @@
         <v>38868.98417119918</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>284</v>
-      </c>
-      <c r="J169" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6265,14 +6681,10 @@
         <v>39047.65757119918</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>283.1</v>
-      </c>
-      <c r="J170" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6306,14 +6718,10 @@
         <v>39898.65757119918</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="J171" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6347,14 +6755,10 @@
         <v>38422.16697119918</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>293.5</v>
-      </c>
-      <c r="J172" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6391,9 +6795,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6427,14 +6829,10 @@
         <v>37275.47480510918</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>287.4</v>
-      </c>
-      <c r="J174" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6468,14 +6866,10 @@
         <v>38432.39880510918</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>289</v>
-      </c>
-      <c r="J175" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6509,14 +6903,10 @@
         <v>42445.62420510918</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>292.8</v>
-      </c>
-      <c r="J176" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6553,9 +6943,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6589,14 +6977,10 @@
         <v>42455.62420510918</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>294</v>
-      </c>
-      <c r="J178" t="n">
-        <v>278.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6633,9 +7017,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6672,9 +7054,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6711,9 +7091,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6750,9 +7128,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>278.3</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6786,12 +7162,12 @@
         <v>55378.10760510918</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>278.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>298.8</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6825,19 +7201,19 @@
         <v>54258.85810510918</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>278.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>298.1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1.044227452389508</v>
+        <v>1</v>
       </c>
       <c r="M184" t="inlineStr"/>
     </row>
@@ -6864,11 +7240,17 @@
         <v>54296.85810510918</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>292</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6897,11 +7279,17 @@
         <v>55688.97060510919</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>296</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6930,11 +7318,17 @@
         <v>59082.08830510919</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>298.3</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6963,11 +7357,17 @@
         <v>68344.88440510919</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>298.5</v>
+      </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6996,11 +7396,15 @@
         <v>65274.37960510918</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7029,11 +7433,17 @@
         <v>65727.37960510919</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>294</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7062,11 +7472,17 @@
         <v>65264.59430510919</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>298.7</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7095,11 +7511,17 @@
         <v>63872.48180510919</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>292.2</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7128,11 +7550,17 @@
         <v>73804.12250510919</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>290</v>
+      </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7161,11 +7589,17 @@
         <v>73800.2127051092</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>295.7</v>
+      </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7194,11 +7628,17 @@
         <v>73850.2127051092</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>291.3</v>
+      </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7227,11 +7667,17 @@
         <v>81759.8151051092</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>295.7</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7264,7 +7710,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7297,7 +7747,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7330,7 +7784,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7359,11 +7817,15 @@
         <v>83067.62934450009</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7392,11 +7854,15 @@
         <v>83693.04740470069</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7425,11 +7891,15 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7458,11 +7928,15 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7491,11 +7965,15 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7524,11 +8002,15 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7557,11 +8039,15 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7590,11 +8076,15 @@
         <v>83079.86350470068</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7623,11 +8113,15 @@
         <v>83024.86350470068</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7656,11 +8150,15 @@
         <v>79871.06940470068</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7689,11 +8187,15 @@
         <v>81501.06940470068</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7722,11 +8224,15 @@
         <v>81486.85700470068</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7755,11 +8261,15 @@
         <v>81785.85700470068</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7788,11 +8298,15 @@
         <v>81764.85700470068</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7821,11 +8335,15 @@
         <v>81742.85700470068</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7858,7 +8376,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7887,11 +8409,15 @@
         <v>86720.38390470068</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7924,7 +8450,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7957,7 +8487,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7990,7 +8524,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8023,7 +8561,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8056,7 +8598,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8089,7 +8635,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8122,7 +8672,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8155,7 +8709,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8188,7 +8746,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8221,7 +8783,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8254,7 +8820,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8287,7 +8857,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8320,7 +8894,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8353,7 +8931,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8386,7 +8968,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8419,7 +9005,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8452,7 +9042,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8485,7 +9079,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8518,7 +9116,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8551,7 +9153,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8584,7 +9190,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8617,7 +9227,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8650,7 +9264,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8683,7 +9301,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8716,7 +9338,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8749,7 +9375,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8782,7 +9412,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8815,7 +9449,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8848,7 +9486,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8881,7 +9523,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8914,7 +9560,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8947,7 +9597,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8980,7 +9634,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9013,7 +9671,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9046,7 +9708,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9079,7 +9745,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9112,7 +9782,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9145,7 +9819,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9178,7 +9856,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9211,7 +9893,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9244,7 +9930,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9277,7 +9967,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9310,7 +10004,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9343,7 +10041,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9376,7 +10078,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9409,7 +10115,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9442,7 +10152,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9475,7 +10189,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9508,7 +10226,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9541,7 +10263,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9574,7 +10300,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9607,7 +10337,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9640,7 +10374,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9673,7 +10411,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9706,7 +10448,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9739,7 +10485,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9772,7 +10522,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9805,7 +10559,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9838,7 +10596,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9871,7 +10633,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9904,7 +10670,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9937,7 +10707,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9970,7 +10744,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10003,7 +10781,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10036,7 +10818,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10069,7 +10855,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10102,7 +10892,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10135,7 +10929,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10168,7 +10966,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10201,7 +11003,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10234,7 +11040,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10267,7 +11077,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10300,7 +11114,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10333,7 +11151,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10366,7 +11188,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10399,7 +11225,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10432,7 +11262,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10465,7 +11299,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10498,7 +11336,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10531,7 +11373,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10564,7 +11410,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10597,7 +11447,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10630,7 +11484,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10663,7 +11521,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10696,7 +11558,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10729,7 +11595,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10762,7 +11632,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10795,7 +11669,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10828,7 +11706,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10861,7 +11743,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10894,7 +11780,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10927,7 +11817,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10960,7 +11854,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10993,7 +11891,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11026,7 +11928,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11059,7 +11965,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11092,7 +12002,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11125,7 +12039,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11158,7 +12076,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11191,7 +12113,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11224,7 +12150,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11257,7 +12187,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11290,7 +12224,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11319,14 +12257,16 @@
         <v>133175.2758852033</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
@@ -11352,7 +12292,7 @@
         <v>132274.5809852033</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11385,7 +12325,7 @@
         <v>139879.7524852033</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11418,7 +12358,7 @@
         <v>136256.6962050842</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11451,7 +12391,7 @@
         <v>134961.6250050842</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11484,7 +12424,7 @@
         <v>131387.8009050842</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11517,7 +12457,7 @@
         <v>131401.7809050842</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11550,7 +12490,7 @@
         <v>125773.8588050842</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11583,7 +12523,7 @@
         <v>125404.3129050842</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11616,7 +12556,7 @@
         <v>115698.8916050842</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11649,7 +12589,7 @@
         <v>120983.8350050842</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11682,7 +12622,7 @@
         <v>120752.0888050842</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11715,7 +12655,7 @@
         <v>130991.5817050842</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11748,7 +12688,7 @@
         <v>128727.1304050842</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
